--- a/capiq_data/in_process_data/IQ324289.xlsx
+++ b/capiq_data/in_process_data/IQ324289.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E9272-4724-4732-9100-ED792AE91265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D365CA4-BE82-4933-A438-CDA1B718A9E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b3b387c9-3a2f-4897-a2ce-997b3e4dc6f9"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"4363d527-303c-47b2-8767-be64bac959cf"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>105.76</v>
+        <v>9.2159999999999993</v>
       </c>
       <c r="D2">
-        <v>1310.33</v>
+        <v>216.89099999999999</v>
       </c>
       <c r="E2">
-        <v>121.807</v>
+        <v>32.673000000000002</v>
       </c>
       <c r="F2">
-        <v>636.59699999999998</v>
+        <v>94.870999999999995</v>
       </c>
       <c r="G2">
-        <v>2301.252</v>
+        <v>449.20400000000001</v>
       </c>
       <c r="H2">
-        <v>5047.8270000000002</v>
+        <v>715.995</v>
       </c>
       <c r="I2">
-        <v>895.73599999999999</v>
+        <v>68.947000000000003</v>
       </c>
       <c r="J2">
-        <v>357.27300000000002</v>
+        <v>90.462999999999994</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1228.9580000000001</v>
+        <v>152.93199999999999</v>
       </c>
       <c r="O2">
-        <v>1838.1420000000001</v>
+        <v>252.26400000000001</v>
       </c>
       <c r="P2">
-        <v>363.54899999999998</v>
+        <v>139.584</v>
       </c>
       <c r="Q2">
-        <v>-13.472</v>
+        <v>-3.0649999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>31070</v>
+        <v>8937</v>
       </c>
       <c r="T2">
-        <v>3209.6849999999999</v>
+        <v>463.73099999999999</v>
       </c>
       <c r="U2">
-        <v>29.721</v>
+        <v>9.2040000000000006</v>
       </c>
       <c r="V2">
-        <v>111.124</v>
+        <v>-12.855</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-48.033999999999999</v>
+        <v>-14.391</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>105.76</v>
+        <v>9.2159999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>102.474</v>
+        <v>12.317</v>
       </c>
       <c r="D3">
-        <v>1382.7380000000001</v>
+        <v>239.06299999999999</v>
       </c>
       <c r="E3">
-        <v>128.22399999999999</v>
+        <v>35.244999999999997</v>
       </c>
       <c r="F3">
-        <v>669.78099999999995</v>
+        <v>102.426</v>
       </c>
       <c r="G3">
-        <v>2467.4110000000001</v>
+        <v>457.92899999999997</v>
       </c>
       <c r="H3">
-        <v>5248.0860000000002</v>
+        <v>730.01499999999999</v>
       </c>
       <c r="I3">
-        <v>977.62699999999995</v>
+        <v>62.612000000000002</v>
       </c>
       <c r="J3">
-        <v>497.64100000000002</v>
+        <v>119.78400000000001</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-398.80900000000003</v>
+        <v>-77.864999999999995</v>
       </c>
       <c r="N3">
-        <v>1317.9739999999999</v>
+        <v>122.4</v>
       </c>
       <c r="O3">
-        <v>2060.2359999999999</v>
+        <v>251.93</v>
       </c>
       <c r="P3">
-        <v>498.84899999999999</v>
+        <v>144.20500000000001</v>
       </c>
       <c r="Q3">
-        <v>200.327</v>
+        <v>2.335</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3187.85</v>
+        <v>478.08499999999998</v>
       </c>
       <c r="U3">
-        <v>230.048</v>
+        <v>11.539</v>
       </c>
       <c r="V3">
-        <v>294.113</v>
+        <v>8.5619999999999994</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-1.54</v>
+        <v>6.1559999999999997</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>102.474</v>
+        <v>12.317</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>133.77199999999999</v>
+        <v>17.986999999999998</v>
       </c>
       <c r="D4">
-        <v>1479.318</v>
+        <v>280.67599999999999</v>
       </c>
       <c r="E4">
-        <v>136.184</v>
+        <v>41.401000000000003</v>
       </c>
       <c r="F4">
-        <v>718.66099999999994</v>
+        <v>117.789</v>
       </c>
       <c r="G4">
-        <v>2554.1840000000002</v>
+        <v>476.62799999999999</v>
       </c>
       <c r="H4">
-        <v>5365.902</v>
+        <v>758.00300000000004</v>
       </c>
       <c r="I4">
-        <v>1115.252</v>
+        <v>72.055999999999997</v>
       </c>
       <c r="J4">
-        <v>497.54700000000003</v>
+        <v>112.197</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1458.2429999999999</v>
+        <v>129.47399999999999</v>
       </c>
       <c r="O4">
-        <v>2212.5169999999998</v>
+        <v>252.233</v>
       </c>
       <c r="P4">
-        <v>498.55200000000002</v>
+        <v>127.105</v>
       </c>
       <c r="Q4">
-        <v>38.744</v>
+        <v>5.2619999999999996</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3153.3850000000002</v>
+        <v>505.77</v>
       </c>
       <c r="U4">
-        <v>268.79199999999997</v>
+        <v>16.800999999999998</v>
       </c>
       <c r="V4">
-        <v>267.35500000000002</v>
+        <v>33.164000000000001</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-174.077</v>
+        <v>-11.773999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>133.77199999999999</v>
+        <v>17.986999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>148.43899999999999</v>
+        <v>20.14</v>
       </c>
       <c r="D5">
-        <v>1535.453</v>
+        <v>293.99599999999998</v>
       </c>
       <c r="E5">
-        <v>136.52000000000001</v>
+        <v>39.109000000000002</v>
       </c>
       <c r="F5">
-        <v>754.21</v>
+        <v>125.28700000000001</v>
       </c>
       <c r="G5">
-        <v>2536.5140000000001</v>
+        <v>504.863</v>
       </c>
       <c r="H5">
-        <v>5396.7830000000004</v>
+        <v>789.99</v>
       </c>
       <c r="I5">
-        <v>1190.8420000000001</v>
+        <v>67.566000000000003</v>
       </c>
       <c r="J5">
-        <v>796.96199999999999</v>
+        <v>104.309</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1506.047</v>
+        <v>140.44399999999999</v>
       </c>
       <c r="O5">
-        <v>2566.2350000000001</v>
+        <v>256.32499999999999</v>
       </c>
       <c r="P5">
-        <v>797.76599999999996</v>
+        <v>119.55</v>
       </c>
       <c r="Q5">
-        <v>7.9249999999999998</v>
+        <v>16.478000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2830.5479999999998</v>
+        <v>533.66499999999996</v>
       </c>
       <c r="U5">
-        <v>276.71699999999998</v>
+        <v>33.279000000000003</v>
       </c>
       <c r="V5">
-        <v>278.68099999999998</v>
+        <v>30.552</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-179.56399999999999</v>
+        <v>-2.3769999999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>148.43899999999999</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>122.988</v>
+        <v>15.907999999999999</v>
       </c>
       <c r="D6">
-        <v>1391.307</v>
+        <v>278.37700000000001</v>
       </c>
       <c r="E6">
-        <v>135.149</v>
+        <v>41.485999999999997</v>
       </c>
       <c r="F6">
-        <v>694.697</v>
+        <v>122.316</v>
       </c>
       <c r="G6">
-        <v>2607.61</v>
+        <v>550.66300000000001</v>
       </c>
       <c r="H6">
-        <v>5500.5010000000002</v>
+        <v>856.85900000000004</v>
       </c>
       <c r="I6">
-        <v>1279.2940000000001</v>
+        <v>61.875</v>
       </c>
       <c r="J6">
-        <v>796.91200000000003</v>
+        <v>165.61799999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1580.01</v>
+        <v>121.136</v>
       </c>
       <c r="O6">
-        <v>2655.65</v>
+        <v>300.56799999999998</v>
       </c>
       <c r="P6">
-        <v>797.57399999999996</v>
+        <v>182.46100000000001</v>
       </c>
       <c r="Q6">
-        <v>84.834999999999994</v>
+        <v>-18.238</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>32700</v>
+        <v>10539</v>
       </c>
       <c r="T6">
-        <v>2844.8510000000001</v>
+        <v>556.29100000000005</v>
       </c>
       <c r="U6">
-        <v>361.55200000000002</v>
+        <v>15.041</v>
       </c>
       <c r="V6">
-        <v>278.84199999999998</v>
+        <v>-22.248999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-112.32599999999999</v>
+        <v>41.649000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>122.988</v>
+        <v>15.907999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>147.49199999999999</v>
+        <v>16.641999999999999</v>
       </c>
       <c r="D7">
-        <v>1529.3920000000001</v>
+        <v>295.48899999999998</v>
       </c>
       <c r="E7">
-        <v>144.822</v>
+        <v>46.244</v>
       </c>
       <c r="F7">
-        <v>761.68</v>
+        <v>126.02800000000001</v>
       </c>
       <c r="G7">
-        <v>2830.3820000000001</v>
+        <v>573.53099999999995</v>
       </c>
       <c r="H7">
-        <v>5754.125</v>
+        <v>894.78300000000002</v>
       </c>
       <c r="I7">
-        <v>1469.31</v>
+        <v>72.350999999999999</v>
       </c>
       <c r="J7">
-        <v>796.86300000000006</v>
+        <v>168.14500000000001</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.185</v>
+        <v>-64.397999999999996</v>
       </c>
       <c r="N7">
-        <v>1801.6559999999999</v>
+        <v>138.42699999999999</v>
       </c>
       <c r="O7">
-        <v>2882.2779999999998</v>
+        <v>319.75900000000001</v>
       </c>
       <c r="P7">
-        <v>797.48800000000006</v>
+        <v>179.214</v>
       </c>
       <c r="Q7">
-        <v>213.64400000000001</v>
+        <v>5.35</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2871.8470000000002</v>
+        <v>575.024</v>
       </c>
       <c r="U7">
-        <v>575.19600000000003</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="V7">
-        <v>414.52800000000002</v>
+        <v>27.960999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-126.985</v>
+        <v>-1.901</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>147.49199999999999</v>
+        <v>16.641999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>146.12</v>
+        <v>22.547000000000001</v>
       </c>
       <c r="D8">
-        <v>1562.8489999999999</v>
+        <v>343.18099999999998</v>
       </c>
       <c r="E8">
-        <v>151.93600000000001</v>
+        <v>52.777000000000001</v>
       </c>
       <c r="F8">
-        <v>779.86099999999999</v>
+        <v>144.18600000000001</v>
       </c>
       <c r="G8">
-        <v>2763.9920000000002</v>
+        <v>608.22</v>
       </c>
       <c r="H8">
-        <v>5710.0919999999996</v>
+        <v>944.44500000000005</v>
       </c>
       <c r="I8">
-        <v>1699.817</v>
+        <v>84.305000000000007</v>
       </c>
       <c r="J8">
-        <v>796.88400000000001</v>
+        <v>170.56</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2012.8979999999999</v>
+        <v>156.017</v>
       </c>
       <c r="O8">
-        <v>3097.44</v>
+        <v>341.65899999999999</v>
       </c>
       <c r="P8">
-        <v>797.40599999999995</v>
+        <v>175.07499999999999</v>
       </c>
       <c r="Q8">
-        <v>-207.47900000000001</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2612.652</v>
+        <v>602.78599999999994</v>
       </c>
       <c r="U8">
-        <v>367.71699999999998</v>
+        <v>27.352</v>
       </c>
       <c r="V8">
-        <v>276.93</v>
+        <v>32.859000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-411.15199999999999</v>
+        <v>-2.7919999999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>146.12</v>
+        <v>22.547000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>159.33199999999999</v>
+        <v>24.096</v>
       </c>
       <c r="D9">
-        <v>1601.558</v>
+        <v>359.57900000000001</v>
       </c>
       <c r="E9">
-        <v>152.53200000000001</v>
+        <v>50.133000000000003</v>
       </c>
       <c r="F9">
-        <v>805.49300000000005</v>
+        <v>152.196</v>
       </c>
       <c r="G9">
-        <v>2882.85</v>
+        <v>619.81799999999998</v>
       </c>
       <c r="H9">
-        <v>5849.3559999999998</v>
+        <v>974.96299999999997</v>
       </c>
       <c r="I9">
-        <v>1863.3530000000001</v>
+        <v>92.643000000000001</v>
       </c>
       <c r="J9">
-        <v>1095.672</v>
+        <v>160.619</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2195.4090000000001</v>
+        <v>166.304</v>
       </c>
       <c r="O9">
-        <v>3590.8330000000001</v>
+        <v>344.82400000000001</v>
       </c>
       <c r="P9">
-        <v>1096.0250000000001</v>
+        <v>161.36699999999999</v>
       </c>
       <c r="Q9">
-        <v>54.988</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2258.5230000000001</v>
+        <v>630.13900000000001</v>
       </c>
       <c r="U9">
-        <v>422.70499999999998</v>
+        <v>31.881</v>
       </c>
       <c r="V9">
-        <v>341.66800000000001</v>
+        <v>44.304000000000002</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-222.21</v>
+        <v>-11.167999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>159.33199999999999</v>
+        <v>24.096</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>132.80199999999999</v>
+        <v>18.707000000000001</v>
       </c>
       <c r="D10">
-        <v>1488.385</v>
+        <v>314.24099999999999</v>
       </c>
       <c r="E10">
-        <v>122.989</v>
+        <v>45.420999999999999</v>
       </c>
       <c r="F10">
-        <v>750.38400000000001</v>
+        <v>130.99</v>
       </c>
       <c r="G10">
-        <v>2732.9479999999999</v>
+        <v>631.04499999999996</v>
       </c>
       <c r="H10">
-        <v>5749.1869999999999</v>
+        <v>1009.419</v>
       </c>
       <c r="I10">
-        <v>1929.1120000000001</v>
+        <v>85.37</v>
       </c>
       <c r="J10">
-        <v>1095.7339999999999</v>
+        <v>190.47</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2272.8649999999998</v>
+        <v>147.422</v>
       </c>
       <c r="O10">
-        <v>3640.88</v>
+        <v>358.89499999999998</v>
       </c>
       <c r="P10">
-        <v>1095.9559999999999</v>
+        <v>191.15199999999999</v>
       </c>
       <c r="Q10">
-        <v>-174.577</v>
+        <v>-2.548</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>53063</v>
+        <v>11513</v>
       </c>
       <c r="T10">
-        <v>2108.3069999999998</v>
+        <v>650.524</v>
       </c>
       <c r="U10">
-        <v>248.12799999999999</v>
+        <v>29.332999999999998</v>
       </c>
       <c r="V10">
-        <v>218.429</v>
+        <v>-0.59099999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-287.22500000000002</v>
+        <v>31.004999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,39 +1595,39 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>132.80199999999999</v>
+        <v>18.707000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>154.32900000000001</v>
+        <v>19.728000000000002</v>
       </c>
       <c r="D11">
-        <v>1585.009</v>
+        <v>339.47500000000002</v>
       </c>
       <c r="E11">
-        <v>153.18899999999999</v>
+        <v>51.643999999999998</v>
       </c>
       <c r="F11">
-        <v>798.66300000000001</v>
+        <v>140.946</v>
       </c>
       <c r="G11">
-        <v>2741.1880000000001</v>
+        <v>626.59199999999998</v>
       </c>
       <c r="H11">
-        <v>5789.5410000000002</v>
+        <v>1028.663</v>
       </c>
       <c r="I11">
-        <v>1967</v>
+        <v>112.55200000000001</v>
       </c>
       <c r="J11">
-        <v>1095.8520000000001</v>
+        <v>155.37100000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.14499999999999999</v>
+        <v>-35.204000000000001</v>
       </c>
       <c r="N11">
-        <v>2349.0219999999999</v>
+        <v>175.64699999999999</v>
       </c>
       <c r="O11">
-        <v>3717.0160000000001</v>
+        <v>355.553</v>
       </c>
       <c r="P11">
-        <v>1095.9349999999999</v>
+        <v>155.94900000000001</v>
       </c>
       <c r="Q11">
-        <v>-42.718000000000004</v>
+        <v>-9.5890000000000004</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2072.5250000000001</v>
+        <v>673.11</v>
       </c>
       <c r="U11">
-        <v>205.41</v>
+        <v>19.744</v>
       </c>
       <c r="V11">
-        <v>226.34399999999999</v>
+        <v>57.344000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-196.96199999999999</v>
+        <v>-33.014000000000003</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>154.32900000000001</v>
+        <v>19.728000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>177.12700000000001</v>
+        <v>26.923999999999999</v>
       </c>
       <c r="D12">
-        <v>1714.9690000000001</v>
+        <v>393.11200000000002</v>
       </c>
       <c r="E12">
-        <v>175.87700000000001</v>
+        <v>56.344000000000001</v>
       </c>
       <c r="F12">
-        <v>871.875</v>
+        <v>165.71299999999999</v>
       </c>
       <c r="G12">
-        <v>3005.1570000000002</v>
+        <v>666.47299999999996</v>
       </c>
       <c r="H12">
-        <v>6123.6459999999997</v>
+        <v>1093.8019999999999</v>
       </c>
       <c r="I12">
-        <v>2058.8589999999999</v>
+        <v>142.75</v>
       </c>
       <c r="J12">
-        <v>1395.922</v>
+        <v>135.31700000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2430.2979999999998</v>
+        <v>219.22499999999999</v>
       </c>
       <c r="O12">
-        <v>4117.5029999999997</v>
+        <v>383.67</v>
       </c>
       <c r="P12">
-        <v>1395.991</v>
+        <v>135.792</v>
       </c>
       <c r="Q12">
-        <v>160.52000000000001</v>
+        <v>6.4859999999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2006.143</v>
+        <v>710.13199999999995</v>
       </c>
       <c r="U12">
-        <v>365.93</v>
+        <v>26.23</v>
       </c>
       <c r="V12">
-        <v>213.06800000000001</v>
+        <v>55.610999999999997</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>49.085000000000001</v>
+        <v>-13.807</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>177.12700000000001</v>
+        <v>26.923999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>186.489</v>
+        <v>29.533000000000001</v>
       </c>
       <c r="D13">
-        <v>1728.0250000000001</v>
+        <v>412.18200000000002</v>
       </c>
       <c r="E13">
-        <v>141.928</v>
+        <v>55.87</v>
       </c>
       <c r="F13">
-        <v>879.16300000000001</v>
+        <v>175.65299999999999</v>
       </c>
       <c r="G13">
-        <v>2975.7730000000001</v>
+        <v>689.32600000000002</v>
       </c>
       <c r="H13">
-        <v>6167.1760000000004</v>
+        <v>1140.617</v>
       </c>
       <c r="I13">
-        <v>2075.5250000000001</v>
+        <v>154.767</v>
       </c>
       <c r="J13">
-        <v>1396.0309999999999</v>
+        <v>110.21599999999999</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2439.056</v>
+        <v>249.03299999999999</v>
       </c>
       <c r="O13">
-        <v>4131.2889999999998</v>
+        <v>391.61900000000003</v>
       </c>
       <c r="P13">
-        <v>1396.0989999999999</v>
+        <v>110.623</v>
       </c>
       <c r="Q13">
-        <v>-2.9220000000000002</v>
+        <v>6.8150000000000004</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2035.8869999999999</v>
+        <v>748.99800000000005</v>
       </c>
       <c r="U13">
-        <v>363.00799999999998</v>
+        <v>33.045000000000002</v>
       </c>
       <c r="V13">
-        <v>280.43599999999998</v>
+        <v>54.514000000000003</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-162.58600000000001</v>
+        <v>-17.713000000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>186.489</v>
+        <v>29.533000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>152.34700000000001</v>
+        <v>23.902000000000001</v>
       </c>
       <c r="D14">
-        <v>1621.2339999999999</v>
+        <v>367.04700000000003</v>
       </c>
       <c r="E14">
-        <v>131.50399999999999</v>
+        <v>52.234999999999999</v>
       </c>
       <c r="F14">
-        <v>819.3</v>
+        <v>156.023</v>
       </c>
       <c r="G14">
-        <v>2835.201</v>
+        <v>656.92600000000004</v>
       </c>
       <c r="H14">
-        <v>6067.2079999999996</v>
+        <v>1157.0329999999999</v>
       </c>
       <c r="I14">
-        <v>2056.5210000000002</v>
+        <v>145.95400000000001</v>
       </c>
       <c r="J14">
-        <v>1396.1410000000001</v>
+        <v>120.977</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2423.0100000000002</v>
+        <v>215.309</v>
       </c>
       <c r="O14">
-        <v>4100.8869999999997</v>
+        <v>372.74799999999999</v>
       </c>
       <c r="P14">
-        <v>1396.2080000000001</v>
+        <v>121.902</v>
       </c>
       <c r="Q14">
-        <v>-131.69</v>
+        <v>-11.951000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>61909</v>
+        <v>12635</v>
       </c>
       <c r="T14">
-        <v>1966.3209999999999</v>
+        <v>784.28499999999997</v>
       </c>
       <c r="U14">
-        <v>231.31800000000001</v>
+        <v>21.094000000000001</v>
       </c>
       <c r="V14">
-        <v>188.178</v>
+        <v>1.367</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-225.619</v>
+        <v>18.018999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>152.34700000000001</v>
+        <v>23.902000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>173.86</v>
+        <v>49.177</v>
       </c>
       <c r="D15">
-        <v>1727.943</v>
+        <v>403.29399999999998</v>
       </c>
       <c r="E15">
-        <v>142.703</v>
+        <v>58.067999999999998</v>
       </c>
       <c r="F15">
-        <v>877.71600000000001</v>
+        <v>169.59299999999999</v>
       </c>
       <c r="G15">
-        <v>3161.2730000000001</v>
+        <v>722.63800000000003</v>
       </c>
       <c r="H15">
-        <v>6429.7730000000001</v>
+        <v>1252.9770000000001</v>
       </c>
       <c r="I15">
-        <v>2160.8969999999999</v>
+        <v>216.536</v>
       </c>
       <c r="J15">
-        <v>1396.242</v>
+        <v>100.82299999999999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1.7999999999999999E-2</v>
+        <v>-20.245999999999999</v>
       </c>
       <c r="N15">
-        <v>2597.85</v>
+        <v>297.642</v>
       </c>
       <c r="O15">
-        <v>4266.549</v>
+        <v>438.17200000000003</v>
       </c>
       <c r="P15">
-        <v>1396.316</v>
+        <v>101.65600000000001</v>
       </c>
       <c r="Q15">
-        <v>280.51299999999998</v>
+        <v>24.242999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2163.2240000000002</v>
+        <v>814.80499999999995</v>
       </c>
       <c r="U15">
-        <v>511.83100000000002</v>
+        <v>45.337000000000003</v>
       </c>
       <c r="V15">
-        <v>345.54899999999998</v>
+        <v>80.528999999999996</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>16.861999999999998</v>
+        <v>-17.866</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>173.86</v>
+        <v>49.177</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>205.64699999999999</v>
+        <v>33.695</v>
       </c>
       <c r="D16">
-        <v>1847.088</v>
+        <v>435.16699999999997</v>
       </c>
       <c r="E16">
-        <v>156.60499999999999</v>
+        <v>60.573</v>
       </c>
       <c r="F16">
-        <v>950.87699999999995</v>
+        <v>189.435</v>
       </c>
       <c r="G16">
-        <v>3171.9670000000001</v>
+        <v>792.76300000000003</v>
       </c>
       <c r="H16">
-        <v>6507.8760000000002</v>
+        <v>1352.7149999999999</v>
       </c>
       <c r="I16">
-        <v>2302.2820000000002</v>
+        <v>258.98700000000002</v>
       </c>
       <c r="J16">
-        <v>1396.3620000000001</v>
+        <v>100.616</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2727.1170000000002</v>
+        <v>350.863</v>
       </c>
       <c r="O16">
-        <v>4390.2950000000001</v>
+        <v>494.57</v>
       </c>
       <c r="P16">
-        <v>1396.424</v>
+        <v>101.392</v>
       </c>
       <c r="Q16">
-        <v>-58.4</v>
+        <v>42.78</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2117.5810000000001</v>
+        <v>858.14499999999998</v>
       </c>
       <c r="U16">
-        <v>453.43099999999998</v>
+        <v>88.117000000000004</v>
       </c>
       <c r="V16">
-        <v>309.976</v>
+        <v>79.006</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-257.96899999999999</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>205.64699999999999</v>
+        <v>33.695</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>216.99700000000001</v>
+        <v>34.686999999999998</v>
       </c>
       <c r="D17">
-        <v>1876.8720000000001</v>
+        <v>455.16199999999998</v>
       </c>
       <c r="E17">
-        <v>152.779</v>
+        <v>61.493000000000002</v>
       </c>
       <c r="F17">
-        <v>968.20100000000002</v>
+        <v>198.16900000000001</v>
       </c>
       <c r="G17">
-        <v>3070.7510000000002</v>
+        <v>814.08399999999995</v>
       </c>
       <c r="H17">
-        <v>6475.1760000000004</v>
+        <v>1405.328</v>
       </c>
       <c r="I17">
-        <v>2409.0540000000001</v>
+        <v>268.15300000000002</v>
       </c>
       <c r="J17">
-        <v>1396.4880000000001</v>
+        <v>100.46899999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2845.942</v>
+        <v>364.29899999999998</v>
       </c>
       <c r="O17">
-        <v>4498.7700000000004</v>
+        <v>510.65800000000002</v>
       </c>
       <c r="P17">
-        <v>1396.5319999999999</v>
+        <v>101.06100000000001</v>
       </c>
       <c r="Q17">
-        <v>-155.148</v>
+        <v>-4.4980000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1976.4059999999999</v>
+        <v>894.67</v>
       </c>
       <c r="U17">
-        <v>298.28300000000002</v>
+        <v>83.619</v>
       </c>
       <c r="V17">
-        <v>327.42899999999997</v>
+        <v>38.066000000000003</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-362.79899999999998</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>216.99700000000001</v>
+        <v>34.686999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>181.678</v>
+        <v>22.007000000000001</v>
       </c>
       <c r="D18">
-        <v>1764.1780000000001</v>
+        <v>427.61799999999999</v>
       </c>
       <c r="E18">
-        <v>143.9</v>
+        <v>60.927999999999997</v>
       </c>
       <c r="F18">
-        <v>912.10699999999997</v>
+        <v>185.96799999999999</v>
       </c>
       <c r="G18">
-        <v>3065.38</v>
+        <v>813.47699999999998</v>
       </c>
       <c r="H18">
-        <v>6532.0829999999996</v>
+        <v>1432.357</v>
       </c>
       <c r="I18">
-        <v>2417.1669999999999</v>
+        <v>240.548</v>
       </c>
       <c r="J18">
-        <v>1388.3969999999999</v>
+        <v>100.322</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2813.2979999999998</v>
+        <v>333.815</v>
       </c>
       <c r="O18">
-        <v>4513.665</v>
+        <v>484.54</v>
       </c>
       <c r="P18">
-        <v>1388.422</v>
+        <v>100.914</v>
       </c>
       <c r="Q18">
-        <v>-47.722999999999999</v>
+        <v>-14.590999999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>67569</v>
+        <v>14149</v>
       </c>
       <c r="T18">
-        <v>2018.4179999999999</v>
+        <v>947.81700000000001</v>
       </c>
       <c r="U18">
-        <v>250.56</v>
+        <v>69.028000000000006</v>
       </c>
       <c r="V18">
-        <v>207.476</v>
+        <v>28.934999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-143.88</v>
+        <v>3.8889999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>181.678</v>
+        <v>22.007000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>212.864</v>
+        <v>33.213000000000001</v>
       </c>
       <c r="D19">
-        <v>1901.903</v>
+        <v>466.23899999999998</v>
       </c>
       <c r="E19">
-        <v>162.02000000000001</v>
+        <v>63.18</v>
       </c>
       <c r="F19">
-        <v>986.95899999999995</v>
+        <v>196.16900000000001</v>
       </c>
       <c r="G19">
-        <v>3274.1210000000001</v>
+        <v>850.14099999999996</v>
       </c>
       <c r="H19">
-        <v>6785.71</v>
+        <v>1505.067</v>
       </c>
       <c r="I19">
-        <v>2470.7489999999998</v>
+        <v>258.47000000000003</v>
       </c>
       <c r="J19">
-        <v>1396.741</v>
+        <v>100.173</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1.9E-2</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="N19">
-        <v>2952.3809999999999</v>
+        <v>365.529</v>
       </c>
       <c r="O19">
-        <v>4642.21</v>
+        <v>516.05100000000004</v>
       </c>
       <c r="P19">
-        <v>1396.7470000000001</v>
+        <v>100.764</v>
       </c>
       <c r="Q19">
-        <v>223.08600000000001</v>
+        <v>20.242000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2143.5</v>
+        <v>989.01599999999996</v>
       </c>
       <c r="U19">
-        <v>473.64600000000002</v>
+        <v>89.27</v>
       </c>
       <c r="V19">
-        <v>406.02499999999998</v>
+        <v>64.358999999999995</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-93.391999999999996</v>
+        <v>5.2619999999999996</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>212.864</v>
+        <v>33.213000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>233.50800000000001</v>
+        <v>42.923000000000002</v>
       </c>
       <c r="D20">
-        <v>2035.518</v>
+        <v>521.20899999999995</v>
       </c>
       <c r="E20">
-        <v>175.28899999999999</v>
+        <v>75.480999999999995</v>
       </c>
       <c r="F20">
-        <v>1058.7909999999999</v>
+        <v>228.97</v>
       </c>
       <c r="G20">
-        <v>3109.0329999999999</v>
+        <v>868.17200000000003</v>
       </c>
       <c r="H20">
-        <v>6668.1469999999999</v>
+        <v>1608.1089999999999</v>
       </c>
       <c r="I20">
-        <v>2535.971</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="J20">
-        <v>1396.8679999999999</v>
+        <v>25.471</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3006.8690000000001</v>
+        <v>494.70100000000002</v>
       </c>
       <c r="O20">
-        <v>4698.1620000000003</v>
+        <v>564.52300000000002</v>
       </c>
       <c r="P20">
-        <v>1396.8679999999999</v>
+        <v>101.05800000000001</v>
       </c>
       <c r="Q20">
-        <v>-213.60400000000001</v>
+        <v>-52.817999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>1969.9849999999999</v>
+        <v>1043.586</v>
       </c>
       <c r="U20">
-        <v>260.04199999999997</v>
+        <v>36.451999999999998</v>
       </c>
       <c r="V20">
-        <v>292.428</v>
+        <v>54.393000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-412.637</v>
+        <v>5.0469999999999997</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>233.50800000000001</v>
+        <v>42.923000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>266.26799999999997</v>
+        <v>48.622999999999998</v>
       </c>
       <c r="D21">
-        <v>2080.201</v>
+        <v>542.90599999999995</v>
       </c>
       <c r="E21">
-        <v>163.88900000000001</v>
+        <v>72.790999999999997</v>
       </c>
       <c r="F21">
-        <v>1089.2539999999999</v>
+        <v>235.916</v>
       </c>
       <c r="G21">
-        <v>3157.5639999999999</v>
+        <v>895.41300000000001</v>
       </c>
       <c r="H21">
-        <v>6775.2659999999996</v>
+        <v>1662.01</v>
       </c>
       <c r="I21">
-        <v>2626.1260000000002</v>
+        <v>287.851</v>
       </c>
       <c r="J21">
-        <v>1396.9949999999999</v>
+        <v>25.468</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3103.9119999999998</v>
+        <v>485.404</v>
       </c>
       <c r="O21">
-        <v>4773.18</v>
+        <v>564.33199999999999</v>
       </c>
       <c r="P21">
-        <v>1396.9949999999999</v>
+        <v>100.91200000000001</v>
       </c>
       <c r="Q21">
-        <v>16.873999999999999</v>
+        <v>15.138999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2002.086</v>
+        <v>1097.6780000000001</v>
       </c>
       <c r="U21">
-        <v>276.916</v>
+        <v>51.591000000000001</v>
       </c>
       <c r="V21">
-        <v>364.26900000000001</v>
+        <v>57.719000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-239.08799999999999</v>
+        <v>3.661</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>266.26799999999997</v>
+        <v>48.622999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>218.57599999999999</v>
+        <v>39.506999999999998</v>
       </c>
       <c r="D22">
-        <v>1949.0519999999999</v>
+        <v>514.96400000000006</v>
       </c>
       <c r="E22">
-        <v>161.078</v>
+        <v>73.849000000000004</v>
       </c>
       <c r="F22">
-        <v>1027.6389999999999</v>
+        <v>231.44800000000001</v>
       </c>
       <c r="G22">
-        <v>3010.0259999999998</v>
+        <v>910.64099999999996</v>
       </c>
       <c r="H22">
-        <v>6676.6840000000002</v>
+        <v>1718.896</v>
       </c>
       <c r="I22">
-        <v>2608.2310000000002</v>
+        <v>292.66699999999997</v>
       </c>
       <c r="J22">
-        <v>1390.018</v>
+        <v>25.460999999999999</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3046.3980000000001</v>
+        <v>485.66699999999997</v>
       </c>
       <c r="O22">
-        <v>4715.37</v>
+        <v>573.12699999999995</v>
       </c>
       <c r="P22">
-        <v>1390.018</v>
+        <v>100.774</v>
       </c>
       <c r="Q22">
-        <v>-160.61500000000001</v>
+        <v>-20.207000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>71621</v>
+        <v>15686</v>
       </c>
       <c r="T22">
-        <v>1961.3140000000001</v>
+        <v>1145.769</v>
       </c>
       <c r="U22">
-        <v>116.301</v>
+        <v>31.384</v>
       </c>
       <c r="V22">
-        <v>218.75399999999999</v>
+        <v>30.213999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-263.43</v>
+        <v>4.1369999999999996</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>218.57599999999999</v>
+        <v>39.506999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>255.374</v>
+        <v>40.564</v>
       </c>
       <c r="D23">
-        <v>2096.15</v>
+        <v>536.54700000000003</v>
       </c>
       <c r="E23">
-        <v>178.28200000000001</v>
+        <v>74.575000000000003</v>
       </c>
       <c r="F23">
-        <v>1097.579</v>
+        <v>233.428</v>
       </c>
       <c r="G23">
-        <v>3701.4630000000002</v>
+        <v>963.00199999999995</v>
       </c>
       <c r="H23">
-        <v>7419.7730000000001</v>
+        <v>1802.9939999999999</v>
       </c>
       <c r="I23">
-        <v>2782.6089999999999</v>
+        <v>312.50900000000001</v>
       </c>
       <c r="J23">
-        <v>1885.877</v>
+        <v>25.436</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-4.4349999999999996</v>
       </c>
       <c r="N23">
-        <v>3315.6770000000001</v>
+        <v>508.56700000000001</v>
       </c>
       <c r="O23">
-        <v>5479.9319999999998</v>
+        <v>596.52200000000005</v>
       </c>
       <c r="P23">
-        <v>1885.877</v>
+        <v>100.59</v>
       </c>
       <c r="Q23">
-        <v>599.70699999999999</v>
+        <v>23.905999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1939.8409999999999</v>
+        <v>1206.472</v>
       </c>
       <c r="U23">
-        <v>716.00800000000004</v>
+        <v>55.29</v>
       </c>
       <c r="V23">
-        <v>503.12099999999998</v>
+        <v>56.932000000000002</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>198.649</v>
+        <v>13.68</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>255.374</v>
+        <v>40.564</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>257.79399999999998</v>
+        <v>49.313000000000002</v>
       </c>
       <c r="D24">
-        <v>2176.6889999999999</v>
+        <v>591.19899999999996</v>
       </c>
       <c r="E24">
-        <v>186.19200000000001</v>
+        <v>82.611999999999995</v>
       </c>
       <c r="F24">
-        <v>1127.1790000000001</v>
+        <v>260.928</v>
       </c>
       <c r="G24">
-        <v>3438.1329999999998</v>
+        <v>1015.8630000000001</v>
       </c>
       <c r="H24">
-        <v>7210.64</v>
+        <v>1916.326</v>
       </c>
       <c r="I24">
-        <v>2914.6410000000001</v>
+        <v>358.09</v>
       </c>
       <c r="J24">
-        <v>1886.3240000000001</v>
+        <v>100.678</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3366.6750000000002</v>
+        <v>486.81799999999998</v>
       </c>
       <c r="O24">
-        <v>5520.63</v>
+        <v>654.62400000000002</v>
       </c>
       <c r="P24">
-        <v>1886.3240000000001</v>
+        <v>100.943</v>
       </c>
       <c r="Q24">
-        <v>-317.74900000000002</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>1690.01</v>
+        <v>1261.702</v>
       </c>
       <c r="U24">
-        <v>398.25900000000001</v>
+        <v>55.247</v>
       </c>
       <c r="V24">
-        <v>325.613</v>
+        <v>66.867999999999995</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-528.02700000000004</v>
+        <v>3.8210000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>257.79399999999998</v>
+        <v>49.313000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>278.49299999999999</v>
+        <v>47.856000000000002</v>
       </c>
       <c r="D25">
-        <v>2220.9549999999999</v>
+        <v>597.14400000000001</v>
       </c>
       <c r="E25">
-        <v>190.90799999999999</v>
+        <v>82.153999999999996</v>
       </c>
       <c r="F25">
-        <v>1170.0260000000001</v>
+        <v>263.32600000000002</v>
       </c>
       <c r="G25">
-        <v>3669.7640000000001</v>
+        <v>1006.204</v>
       </c>
       <c r="H25">
-        <v>7522.34</v>
+        <v>1945.8679999999999</v>
       </c>
       <c r="I25">
-        <v>2999.08</v>
+        <v>341.375</v>
       </c>
       <c r="J25">
-        <v>1886.501</v>
+        <v>100.548</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3465.4279999999999</v>
+        <v>456.18900000000002</v>
       </c>
       <c r="O25">
-        <v>5621.5770000000002</v>
+        <v>629.78899999999999</v>
       </c>
       <c r="P25">
-        <v>1886.501</v>
+        <v>100.855</v>
       </c>
       <c r="Q25">
-        <v>162.06100000000001</v>
+        <v>-14.423999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1900.7629999999999</v>
+        <v>1316.079</v>
       </c>
       <c r="U25">
-        <v>560.32000000000005</v>
+        <v>40.823</v>
       </c>
       <c r="V25">
-        <v>385.52499999999998</v>
+        <v>35.994999999999997</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-88.164000000000001</v>
+        <v>4.7089999999999996</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>278.49299999999999</v>
+        <v>47.856000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>246.03</v>
+        <v>40.351999999999997</v>
       </c>
       <c r="D26">
-        <v>2099.3020000000001</v>
+        <v>558.33199999999999</v>
       </c>
       <c r="E26">
-        <v>197.274</v>
+        <v>81.048000000000002</v>
       </c>
       <c r="F26">
-        <v>1114.2270000000001</v>
+        <v>249.029</v>
       </c>
       <c r="G26">
-        <v>3257.9749999999999</v>
+        <v>1000.676</v>
       </c>
       <c r="H26">
-        <v>7204.1890000000003</v>
+        <v>1977.4960000000001</v>
       </c>
       <c r="I26">
-        <v>2936.6559999999999</v>
+        <v>318.404</v>
       </c>
       <c r="J26">
-        <v>1887.019</v>
+        <v>110.17</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3400.6489999999999</v>
+        <v>433.78399999999999</v>
       </c>
       <c r="O26">
-        <v>5577.0529999999999</v>
+        <v>613.4</v>
       </c>
       <c r="P26">
-        <v>1887.019</v>
+        <v>110.479</v>
       </c>
       <c r="Q26">
-        <v>-413.72199999999998</v>
+        <v>-10.92</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>74580</v>
+        <v>17153</v>
       </c>
       <c r="T26">
-        <v>1627.136</v>
+        <v>1364.096</v>
       </c>
       <c r="U26">
-        <v>146.59800000000001</v>
+        <v>29.902999999999999</v>
       </c>
       <c r="V26">
-        <v>296.45400000000001</v>
+        <v>26.132999999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-533.77800000000002</v>
+        <v>15.582000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>246.03</v>
+        <v>40.351999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>264.93400000000003</v>
+        <v>48.406999999999996</v>
       </c>
       <c r="D27">
-        <v>2156.259</v>
+        <v>613.14499999999998</v>
       </c>
       <c r="E27">
-        <v>195.65100000000001</v>
+        <v>87.308999999999997</v>
       </c>
       <c r="F27">
-        <v>1131.1469999999999</v>
+        <v>269.28100000000001</v>
       </c>
       <c r="G27">
-        <v>3205.5329999999999</v>
+        <v>1070.6890000000001</v>
       </c>
       <c r="H27">
-        <v>7203.7240000000002</v>
+        <v>2093.6280000000002</v>
       </c>
       <c r="I27">
-        <v>2987.9960000000001</v>
+        <v>372.06099999999998</v>
       </c>
       <c r="J27">
-        <v>1977.539</v>
+        <v>100.39</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-392</v>
+        <v>-26.225999999999999</v>
       </c>
       <c r="N27">
-        <v>3505.7629999999999</v>
+        <v>497.51499999999999</v>
       </c>
       <c r="O27">
-        <v>5781.1279999999997</v>
+        <v>673.14300000000003</v>
       </c>
       <c r="P27">
-        <v>1977.539</v>
+        <v>100.702</v>
       </c>
       <c r="Q27">
-        <v>-119.059</v>
+        <v>60.314</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1422.596</v>
+        <v>1420.4849999999999</v>
       </c>
       <c r="U27">
-        <v>27.539000000000001</v>
+        <v>90.216999999999999</v>
       </c>
       <c r="V27">
-        <v>376.7</v>
+        <v>128.631</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-384.73599999999999</v>
+        <v>-4.181</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>264.93400000000003</v>
+        <v>48.406999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>282.82100000000003</v>
+        <v>51.899000000000001</v>
       </c>
       <c r="D28">
-        <v>2290.8290000000002</v>
+        <v>643.10799999999995</v>
       </c>
       <c r="E28">
-        <v>203.673</v>
+        <v>92.201999999999998</v>
       </c>
       <c r="F28">
-        <v>1200.0619999999999</v>
+        <v>287.185</v>
       </c>
       <c r="G28">
-        <v>3289.5889999999999</v>
+        <v>1106.623</v>
       </c>
       <c r="H28">
-        <v>7345.6980000000003</v>
+        <v>2184.7040000000002</v>
       </c>
       <c r="I28">
-        <v>3091.8879999999999</v>
+        <v>393.916</v>
       </c>
       <c r="J28">
-        <v>2604.0619999999999</v>
+        <v>75.311000000000007</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3566.1329999999998</v>
+        <v>541.20699999999999</v>
       </c>
       <c r="O28">
-        <v>6476.3860000000004</v>
+        <v>692.14099999999996</v>
       </c>
       <c r="P28">
-        <v>2604.0619999999999</v>
+        <v>100.626</v>
       </c>
       <c r="Q28">
-        <v>-1.0109999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>869.31200000000001</v>
+        <v>1492.5630000000001</v>
       </c>
       <c r="U28">
-        <v>26.527999999999999</v>
+        <v>92.483999999999995</v>
       </c>
       <c r="V28">
-        <v>333.80700000000002</v>
+        <v>63.298999999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-217.12</v>
+        <v>13.536</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>282.82100000000003</v>
+        <v>51.899000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>283.73399999999998</v>
+        <v>53.087000000000003</v>
       </c>
       <c r="D29">
-        <v>2339.83</v>
+        <v>661.77800000000002</v>
       </c>
       <c r="E29">
-        <v>219.631</v>
+        <v>90.653999999999996</v>
       </c>
       <c r="F29">
-        <v>1230.2940000000001</v>
+        <v>293.70100000000002</v>
       </c>
       <c r="G29">
-        <v>3358.4810000000002</v>
+        <v>1125.835</v>
       </c>
       <c r="H29">
-        <v>7479.3280000000004</v>
+        <v>2260.5500000000002</v>
       </c>
       <c r="I29">
-        <v>3154.25</v>
+        <v>401.30799999999999</v>
       </c>
       <c r="J29">
-        <v>2900.8159999999998</v>
+        <v>75.23</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3628.5</v>
+        <v>553.952</v>
       </c>
       <c r="O29">
-        <v>6865.1490000000003</v>
+        <v>707.37900000000002</v>
       </c>
       <c r="P29">
-        <v>2900.8159999999998</v>
+        <v>100.547</v>
       </c>
       <c r="Q29">
-        <v>10.759</v>
+        <v>17.298999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>614.17899999999997</v>
+        <v>1553.171</v>
       </c>
       <c r="U29">
-        <v>37.286999999999999</v>
+        <v>109.783</v>
       </c>
       <c r="V29">
-        <v>376.91199999999998</v>
+        <v>89.977999999999994</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-246.952</v>
+        <v>5.0919999999999996</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>283.73399999999998</v>
+        <v>53.087000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>302.315</v>
+        <v>40.594999999999999</v>
       </c>
       <c r="D30">
-        <v>2190.808</v>
+        <v>604.28800000000001</v>
       </c>
       <c r="E30">
-        <v>216.251</v>
+        <v>84.242000000000004</v>
       </c>
       <c r="F30">
-        <v>1159.18</v>
+        <v>270.29300000000001</v>
       </c>
       <c r="G30">
-        <v>3397.672</v>
+        <v>1102.3040000000001</v>
       </c>
       <c r="H30">
-        <v>7571.8850000000002</v>
+        <v>2279.7370000000001</v>
       </c>
       <c r="I30">
-        <v>3190.029</v>
+        <v>380.68299999999999</v>
       </c>
       <c r="J30">
-        <v>2978.39</v>
+        <v>75.149000000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3647.366</v>
+        <v>528.976</v>
       </c>
       <c r="O30">
-        <v>6918.8389999999999</v>
+        <v>687.26</v>
       </c>
       <c r="P30">
-        <v>2978.39</v>
+        <v>100.46899999999999</v>
       </c>
       <c r="Q30">
-        <v>9.0609999999999999</v>
+        <v>-62.228000000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>75552</v>
+        <v>18546</v>
       </c>
       <c r="T30">
-        <v>653.04600000000005</v>
+        <v>1592.4770000000001</v>
       </c>
       <c r="U30">
-        <v>46.347999999999999</v>
+        <v>47.555</v>
       </c>
       <c r="V30">
-        <v>316.26799999999997</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-190.90600000000001</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-21.724</v>
       </c>
       <c r="AA30">
-        <v>302.315</v>
+        <v>40.594999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>304.90600000000001</v>
+        <v>46.331000000000003</v>
       </c>
       <c r="D31">
-        <v>2282.681</v>
+        <v>646.22</v>
       </c>
       <c r="E31">
-        <v>224.386</v>
+        <v>93.123000000000005</v>
       </c>
       <c r="F31">
-        <v>1201.258</v>
+        <v>288.49400000000003</v>
       </c>
       <c r="G31">
-        <v>3446.4110000000001</v>
+        <v>1166.617</v>
       </c>
       <c r="H31">
-        <v>7666.6570000000002</v>
+        <v>2397.7359999999999</v>
       </c>
       <c r="I31">
-        <v>3222.7849999999999</v>
+        <v>417.12799999999999</v>
       </c>
       <c r="J31">
-        <v>3193.0659999999998</v>
+        <v>75.067999999999998</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-541</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="N31">
-        <v>3748.181</v>
+        <v>588.32600000000002</v>
       </c>
       <c r="O31">
-        <v>7242.8289999999997</v>
+        <v>746.72299999999996</v>
       </c>
       <c r="P31">
-        <v>3193.0659999999998</v>
+        <v>100.39100000000001</v>
       </c>
       <c r="Q31">
-        <v>-7.8230000000000004</v>
+        <v>65.731999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>423.82799999999997</v>
+        <v>1651.0129999999999</v>
       </c>
       <c r="U31">
-        <v>38.524999999999999</v>
+        <v>113.28700000000001</v>
       </c>
       <c r="V31">
-        <v>432.27699999999999</v>
+        <v>118.854</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-325.63400000000001</v>
+        <v>3.456</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>304.90600000000001</v>
+        <v>46.331000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>353.07299999999998</v>
+        <v>55.787999999999997</v>
       </c>
       <c r="D32">
-        <v>2456.0729999999999</v>
+        <v>704.43</v>
       </c>
       <c r="E32">
-        <v>241.142</v>
+        <v>97.186000000000007</v>
       </c>
       <c r="F32">
-        <v>1288.6379999999999</v>
+        <v>317.09699999999998</v>
       </c>
       <c r="G32">
-        <v>3500.7170000000001</v>
+        <v>1181.3050000000001</v>
       </c>
       <c r="H32">
-        <v>7766.74</v>
+        <v>2462.7669999999998</v>
       </c>
       <c r="I32">
-        <v>3314.6709999999998</v>
+        <v>446.01299999999998</v>
       </c>
       <c r="J32">
-        <v>3253.538</v>
+        <v>75</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3818.9180000000001</v>
+        <v>582.91</v>
       </c>
       <c r="O32">
-        <v>7381.75</v>
+        <v>745.52800000000002</v>
       </c>
       <c r="P32">
-        <v>3253.538</v>
+        <v>75.311000000000007</v>
       </c>
       <c r="Q32">
-        <v>-1.657</v>
+        <v>3.927</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>384.99</v>
+        <v>1717.239</v>
       </c>
       <c r="U32">
-        <v>36.868000000000002</v>
+        <v>117.214</v>
       </c>
       <c r="V32">
-        <v>442.95600000000002</v>
+        <v>96.614000000000004</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-337.47399999999999</v>
+        <v>-23.352</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>353.07299999999998</v>
+        <v>55.787999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>366.15100000000001</v>
+        <v>41.399000000000001</v>
       </c>
       <c r="D33">
-        <v>2482.7170000000001</v>
+        <v>1111.2719999999999</v>
       </c>
       <c r="E33">
-        <v>242.69200000000001</v>
+        <v>108.661</v>
       </c>
       <c r="F33">
-        <v>1315.7550000000001</v>
+        <v>507.20600000000002</v>
       </c>
       <c r="G33">
-        <v>3560.0309999999999</v>
+        <v>1802.3489999999999</v>
       </c>
       <c r="H33">
-        <v>7894.7139999999999</v>
+        <v>4025.1469999999999</v>
       </c>
       <c r="I33">
-        <v>3384.098</v>
+        <v>757.08</v>
       </c>
       <c r="J33">
-        <v>3174.3270000000002</v>
+        <v>657.13099999999997</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3905.0810000000001</v>
+        <v>1053.203</v>
       </c>
       <c r="O33">
-        <v>7396.335</v>
+        <v>1834.654</v>
       </c>
       <c r="P33">
-        <v>3174.3270000000002</v>
+        <v>665.38800000000003</v>
       </c>
       <c r="Q33">
-        <v>3.1509999999999998</v>
+        <v>-90.804000000000002</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>498.37900000000002</v>
+        <v>2190.4929999999999</v>
       </c>
       <c r="U33">
-        <v>40.018999999999998</v>
+        <v>26.41</v>
       </c>
       <c r="V33">
-        <v>466.786</v>
+        <v>73.828999999999994</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-337.416</v>
+        <v>-1.784</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>366.15100000000001</v>
+        <v>41.399000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>300.35700000000003</v>
+        <v>42.713999999999999</v>
       </c>
       <c r="D34">
-        <v>2314.9569999999999</v>
+        <v>1114.6310000000001</v>
       </c>
       <c r="E34">
-        <v>192.02600000000001</v>
+        <v>105.985</v>
       </c>
       <c r="F34">
-        <v>1234.3150000000001</v>
+        <v>515.12900000000002</v>
       </c>
       <c r="G34">
-        <v>3543.1019999999999</v>
+        <v>1875.433</v>
       </c>
       <c r="H34">
-        <v>7980.7889999999998</v>
+        <v>4193.317</v>
       </c>
       <c r="I34">
-        <v>3376.4029999999998</v>
+        <v>736.98599999999999</v>
       </c>
       <c r="J34">
-        <v>3417.1219999999998</v>
+        <v>724.56399999999996</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3894.02</v>
+        <v>1053.501</v>
       </c>
       <c r="O34">
-        <v>7627.1220000000003</v>
+        <v>1911.0989999999999</v>
       </c>
       <c r="P34">
-        <v>3417.1219999999998</v>
+        <v>751.56899999999996</v>
       </c>
       <c r="Q34">
-        <v>-8.7040000000000006</v>
+        <v>4.891</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>78882</v>
+        <v>28248</v>
       </c>
       <c r="T34">
-        <v>353.66699999999997</v>
+        <v>2282.2179999999998</v>
       </c>
       <c r="U34">
-        <v>31.315000000000001</v>
+        <v>31.300999999999998</v>
       </c>
       <c r="V34">
-        <v>385.536</v>
+        <v>9.2449999999999992</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-207.762</v>
+        <v>74.480999999999995</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3587,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>300.35700000000003</v>
+        <v>42.713999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>321.15199999999999</v>
+        <v>62.835000000000001</v>
       </c>
       <c r="D35">
-        <v>2410.6080000000002</v>
+        <v>1163.749</v>
       </c>
       <c r="E35">
-        <v>250.68</v>
+        <v>109.878</v>
       </c>
       <c r="F35">
-        <v>1279.29</v>
+        <v>542.66999999999996</v>
       </c>
       <c r="G35">
-        <v>3649.6460000000002</v>
+        <v>1956.569</v>
       </c>
       <c r="H35">
-        <v>10061.562</v>
+        <v>4377.7939999999999</v>
       </c>
       <c r="I35">
-        <v>3438.6790000000001</v>
+        <v>760.61300000000006</v>
       </c>
       <c r="J35">
-        <v>3460.9209999999998</v>
+        <v>776.68299999999999</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-831</v>
+        <v>-115.81</v>
       </c>
       <c r="N35">
-        <v>4326.3320000000003</v>
+        <v>1096.8489999999999</v>
       </c>
       <c r="O35">
-        <v>9689.1970000000001</v>
+        <v>2012.318</v>
       </c>
       <c r="P35">
-        <v>5386.8370000000004</v>
+        <v>790.96799999999996</v>
       </c>
       <c r="Q35">
-        <v>25.402000000000001</v>
+        <v>6.1029999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>372.36500000000001</v>
+        <v>2365.4760000000001</v>
       </c>
       <c r="U35">
-        <v>56.716999999999999</v>
+        <v>37.404000000000003</v>
       </c>
       <c r="V35">
-        <v>440.62200000000001</v>
+        <v>86.55</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-263.822</v>
+        <v>70.144999999999996</v>
       </c>
       <c r="Y35">
-        <v>1629.3109999999999</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>321.15199999999999</v>
+        <v>62.835000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>353.68099999999998</v>
+        <v>85.515000000000001</v>
       </c>
       <c r="D36">
-        <v>2589.8739999999998</v>
+        <v>1251.377</v>
       </c>
       <c r="E36">
-        <v>262.22699999999998</v>
+        <v>118.538</v>
       </c>
       <c r="F36">
-        <v>1368.287</v>
+        <v>603.76900000000001</v>
       </c>
       <c r="G36">
-        <v>3700.5729999999999</v>
+        <v>2085.77</v>
       </c>
       <c r="H36">
-        <v>10201.942999999999</v>
+        <v>4567.482</v>
       </c>
       <c r="I36">
-        <v>3516.15</v>
+        <v>818.87300000000005</v>
       </c>
       <c r="J36">
-        <v>3783.7379999999998</v>
+        <v>777.39599999999996</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4360.3919999999998</v>
+        <v>1150.385</v>
       </c>
       <c r="O36">
-        <v>10057.261</v>
+        <v>2090.0419999999999</v>
       </c>
       <c r="P36">
-        <v>5719.491</v>
+        <v>796.62</v>
       </c>
       <c r="Q36">
-        <v>-0.90800000000000003</v>
+        <v>3.62</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>144.68199999999999</v>
+        <v>2477.44</v>
       </c>
       <c r="U36">
-        <v>55.808999999999997</v>
+        <v>41.024000000000001</v>
       </c>
       <c r="V36">
-        <v>406.38200000000001</v>
+        <v>66.212999999999994</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-265.33999999999997</v>
+        <v>18.015000000000001</v>
       </c>
       <c r="Y36">
-        <v>1631.7190000000001</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="Z36">
-        <v>-1.7170000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>353.68099999999998</v>
+        <v>85.515000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>391.29300000000001</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="D37">
-        <v>2666.5279999999998</v>
+        <v>1258.239</v>
       </c>
       <c r="E37">
-        <v>224.03299999999999</v>
+        <v>111.86199999999999</v>
       </c>
       <c r="F37">
-        <v>1422.53</v>
+        <v>610.55499999999995</v>
       </c>
       <c r="G37">
-        <v>3724.489</v>
+        <v>2174.66</v>
       </c>
       <c r="H37">
-        <v>10372.724</v>
+        <v>4681.1109999999999</v>
       </c>
       <c r="I37">
-        <v>3606.5709999999999</v>
+        <v>889.03</v>
       </c>
       <c r="J37">
-        <v>3703.6280000000002</v>
+        <v>698.37800000000004</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4580.8540000000003</v>
+        <v>1217.3109999999999</v>
       </c>
       <c r="O37">
-        <v>10206.504999999999</v>
+        <v>2081.864</v>
       </c>
       <c r="P37">
-        <v>5654.5320000000002</v>
+        <v>718.98299999999995</v>
       </c>
       <c r="Q37">
-        <v>-13.005000000000001</v>
+        <v>-11.489000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>166.21899999999999</v>
+        <v>2599.2469999999998</v>
       </c>
       <c r="U37">
-        <v>42.804000000000002</v>
+        <v>29.535</v>
       </c>
       <c r="V37">
-        <v>642.67200000000003</v>
+        <v>136.21700000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-455.97</v>
+        <v>-64.075000000000003</v>
       </c>
       <c r="Y37">
-        <v>1642.1780000000001</v>
+        <v>7.609</v>
       </c>
       <c r="Z37">
-        <v>-16.271000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>391.29300000000001</v>
+        <v>87.224999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>324.916</v>
+        <v>71.923000000000002</v>
       </c>
       <c r="D38">
-        <v>2482.9749999999999</v>
+        <v>1173.6969999999999</v>
       </c>
       <c r="E38">
-        <v>214.91499999999999</v>
+        <v>107.887</v>
       </c>
       <c r="F38">
-        <v>1324.5840000000001</v>
+        <v>569.53399999999999</v>
       </c>
       <c r="G38">
-        <v>3833.6619999999998</v>
+        <v>2226.7190000000001</v>
       </c>
       <c r="H38">
-        <v>10717.16</v>
+        <v>4781.4709999999995</v>
       </c>
       <c r="I38">
-        <v>3604.7220000000002</v>
+        <v>818.15300000000002</v>
       </c>
       <c r="J38">
-        <v>3890.527</v>
+        <v>692.95299999999997</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4469.4269999999997</v>
+        <v>1219.143</v>
       </c>
       <c r="O38">
-        <v>10319.82</v>
+        <v>2095.6060000000002</v>
       </c>
       <c r="P38">
-        <v>5861.8850000000002</v>
+        <v>803.80100000000004</v>
       </c>
       <c r="Q38">
-        <v>-2.3980000000000001</v>
+        <v>-2.6</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>81223</v>
+        <v>30379</v>
       </c>
       <c r="T38">
-        <v>397.34</v>
+        <v>2685.8649999999998</v>
       </c>
       <c r="U38">
-        <v>40.405999999999999</v>
+        <v>26.934999999999999</v>
       </c>
       <c r="V38">
-        <v>218.803</v>
+        <v>-3.78</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>82.320999999999998</v>
+        <v>97.01</v>
       </c>
       <c r="Y38">
-        <v>1655.297</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-15.792999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>324.916</v>
+        <v>71.923000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>300.43799999999999</v>
+        <v>97.475999999999999</v>
       </c>
       <c r="D39">
-        <v>2476.4870000000001</v>
+        <v>1280.067</v>
       </c>
       <c r="E39">
-        <v>221.167</v>
+        <v>123.539</v>
       </c>
       <c r="F39">
-        <v>1295.9059999999999</v>
+        <v>618.34699999999998</v>
       </c>
       <c r="G39">
-        <v>4201.8</v>
+        <v>2231.558</v>
       </c>
       <c r="H39">
-        <v>11108.861999999999</v>
+        <v>4837.8649999999998</v>
       </c>
       <c r="I39">
-        <v>3758.1990000000001</v>
+        <v>794.67600000000004</v>
       </c>
       <c r="J39">
-        <v>4471.2479999999996</v>
+        <v>605.35599999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-969</v>
+        <v>-210.76300000000001</v>
       </c>
       <c r="N39">
-        <v>4624.9319999999998</v>
+        <v>1254.8040000000001</v>
       </c>
       <c r="O39">
-        <v>11000.018</v>
+        <v>2037.547</v>
       </c>
       <c r="P39">
-        <v>6450.1710000000003</v>
+        <v>714.09299999999996</v>
       </c>
       <c r="Q39">
-        <v>246.661</v>
+        <v>2.9369999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>108.84399999999999</v>
+        <v>2800.3180000000002</v>
       </c>
       <c r="U39">
-        <v>287.06700000000001</v>
+        <v>29.872</v>
       </c>
       <c r="V39">
-        <v>459.09300000000002</v>
+        <v>170.64599999999999</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>15.3</v>
+        <v>-77.451999999999998</v>
       </c>
       <c r="Y39">
-        <v>1661.991</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-95.259</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>300.43799999999999</v>
+        <v>97.475999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>531.66700000000003</v>
+        <v>99.594999999999999</v>
       </c>
       <c r="D40">
-        <v>3091.5949999999998</v>
+        <v>1381.241</v>
       </c>
       <c r="E40">
-        <v>243.66</v>
+        <v>129.76900000000001</v>
       </c>
       <c r="F40">
-        <v>1637.18</v>
+        <v>672.63300000000004</v>
       </c>
       <c r="G40">
-        <v>4784.4849999999997</v>
+        <v>2257.4969999999998</v>
       </c>
       <c r="H40">
-        <v>11728.535</v>
+        <v>4916.5190000000002</v>
       </c>
       <c r="I40">
-        <v>3936.4</v>
+        <v>854.65899999999999</v>
       </c>
       <c r="J40">
-        <v>4127.3969999999999</v>
+        <v>486.72300000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5022.1360000000004</v>
+        <v>1309.104</v>
       </c>
       <c r="O40">
-        <v>11139.434999999999</v>
+        <v>1986.067</v>
       </c>
       <c r="P40">
-        <v>6098.2820000000002</v>
+        <v>593.29999999999995</v>
       </c>
       <c r="Q40">
-        <v>585.35599999999999</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>589.1</v>
+        <v>2930.4520000000002</v>
       </c>
       <c r="U40">
-        <v>872.423</v>
+        <v>31.611000000000001</v>
       </c>
       <c r="V40">
-        <v>1099.9849999999999</v>
+        <v>185.09700000000001</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-406.03199999999998</v>
+        <v>-93.021000000000001</v>
       </c>
       <c r="Y40">
-        <v>1652.2840000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>531.66700000000003</v>
+        <v>99.594999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>527.25199999999995</v>
+        <v>116.542</v>
       </c>
       <c r="D41">
-        <v>3207.6379999999999</v>
+        <v>1425.8869999999999</v>
       </c>
       <c r="E41">
-        <v>243.19200000000001</v>
+        <v>125.90600000000001</v>
       </c>
       <c r="F41">
-        <v>1680.4680000000001</v>
+        <v>693.41499999999996</v>
       </c>
       <c r="G41">
-        <v>5533.4409999999998</v>
+        <v>2309.596</v>
       </c>
       <c r="H41">
-        <v>12503.950999999999</v>
+        <v>5023.4189999999999</v>
       </c>
       <c r="I41">
-        <v>4083.8049999999998</v>
+        <v>943.14700000000005</v>
       </c>
       <c r="J41">
-        <v>4122.424</v>
+        <v>328.26100000000002</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5669.384</v>
+        <v>1383.2619999999999</v>
       </c>
       <c r="O41">
-        <v>11794.726000000001</v>
+        <v>1949.1479999999999</v>
       </c>
       <c r="P41">
-        <v>6581.3860000000004</v>
+        <v>437.93200000000002</v>
       </c>
       <c r="Q41">
-        <v>754.67499999999995</v>
+        <v>11.582000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>709.22500000000002</v>
+        <v>3074.2710000000002</v>
       </c>
       <c r="U41">
-        <v>1627.098</v>
+        <v>43.192999999999998</v>
       </c>
       <c r="V41">
-        <v>790.05100000000004</v>
+        <v>236.82</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>76.388999999999996</v>
+        <v>-131.11699999999999</v>
       </c>
       <c r="Y41">
-        <v>1640.646</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>527.25199999999995</v>
+        <v>116.542</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>105.76</v>
+      </c>
+      <c r="D42">
+        <v>1310.33</v>
+      </c>
+      <c r="E42">
+        <v>121.807</v>
+      </c>
+      <c r="F42">
+        <v>636.59699999999998</v>
+      </c>
+      <c r="G42">
+        <v>2301.252</v>
+      </c>
+      <c r="H42">
+        <v>5047.8270000000002</v>
+      </c>
+      <c r="I42">
+        <v>895.73599999999999</v>
+      </c>
+      <c r="J42">
+        <v>357.27300000000002</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1228.9580000000001</v>
+      </c>
+      <c r="O42">
+        <v>1838.1420000000001</v>
+      </c>
+      <c r="P42">
+        <v>363.54899999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-13.472</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>31070</v>
+      </c>
+      <c r="T42">
+        <v>3209.6849999999999</v>
+      </c>
+      <c r="U42">
+        <v>29.721</v>
+      </c>
+      <c r="V42">
+        <v>111.124</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-48.033999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>105.76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>102.474</v>
+      </c>
+      <c r="D43">
+        <v>1382.7380000000001</v>
+      </c>
+      <c r="E43">
+        <v>128.22399999999999</v>
+      </c>
+      <c r="F43">
+        <v>669.78099999999995</v>
+      </c>
+      <c r="G43">
+        <v>2467.4110000000001</v>
+      </c>
+      <c r="H43">
+        <v>5248.0860000000002</v>
+      </c>
+      <c r="I43">
+        <v>977.62699999999995</v>
+      </c>
+      <c r="J43">
+        <v>497.64100000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-398.80900000000003</v>
+      </c>
+      <c r="N43">
+        <v>1317.9739999999999</v>
+      </c>
+      <c r="O43">
+        <v>2060.2359999999999</v>
+      </c>
+      <c r="P43">
+        <v>498.84899999999999</v>
+      </c>
+      <c r="Q43">
+        <v>200.327</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3187.85</v>
+      </c>
+      <c r="U43">
+        <v>230.048</v>
+      </c>
+      <c r="V43">
+        <v>294.113</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-1.54</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>102.474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>133.77199999999999</v>
+      </c>
+      <c r="D44">
+        <v>1479.318</v>
+      </c>
+      <c r="E44">
+        <v>136.184</v>
+      </c>
+      <c r="F44">
+        <v>718.66099999999994</v>
+      </c>
+      <c r="G44">
+        <v>2554.1840000000002</v>
+      </c>
+      <c r="H44">
+        <v>5365.902</v>
+      </c>
+      <c r="I44">
+        <v>1115.252</v>
+      </c>
+      <c r="J44">
+        <v>497.54700000000003</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1458.2429999999999</v>
+      </c>
+      <c r="O44">
+        <v>2212.5169999999998</v>
+      </c>
+      <c r="P44">
+        <v>498.55200000000002</v>
+      </c>
+      <c r="Q44">
+        <v>38.744</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3153.3850000000002</v>
+      </c>
+      <c r="U44">
+        <v>268.79199999999997</v>
+      </c>
+      <c r="V44">
+        <v>267.35500000000002</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-174.077</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>133.77199999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>148.43899999999999</v>
+      </c>
+      <c r="D45">
+        <v>1535.453</v>
+      </c>
+      <c r="E45">
+        <v>136.52000000000001</v>
+      </c>
+      <c r="F45">
+        <v>754.21</v>
+      </c>
+      <c r="G45">
+        <v>2536.5140000000001</v>
+      </c>
+      <c r="H45">
+        <v>5396.7830000000004</v>
+      </c>
+      <c r="I45">
+        <v>1190.8420000000001</v>
+      </c>
+      <c r="J45">
+        <v>796.96199999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1506.047</v>
+      </c>
+      <c r="O45">
+        <v>2566.2350000000001</v>
+      </c>
+      <c r="P45">
+        <v>797.76599999999996</v>
+      </c>
+      <c r="Q45">
+        <v>7.9249999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2830.5479999999998</v>
+      </c>
+      <c r="U45">
+        <v>276.71699999999998</v>
+      </c>
+      <c r="V45">
+        <v>278.68099999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-179.56399999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>148.43899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>122.988</v>
+      </c>
+      <c r="D46">
+        <v>1391.307</v>
+      </c>
+      <c r="E46">
+        <v>135.149</v>
+      </c>
+      <c r="F46">
+        <v>694.697</v>
+      </c>
+      <c r="G46">
+        <v>2607.61</v>
+      </c>
+      <c r="H46">
+        <v>5500.5010000000002</v>
+      </c>
+      <c r="I46">
+        <v>1279.2940000000001</v>
+      </c>
+      <c r="J46">
+        <v>796.91200000000003</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1580.01</v>
+      </c>
+      <c r="O46">
+        <v>2655.65</v>
+      </c>
+      <c r="P46">
+        <v>797.57399999999996</v>
+      </c>
+      <c r="Q46">
+        <v>84.834999999999994</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>32700</v>
+      </c>
+      <c r="T46">
+        <v>2844.8510000000001</v>
+      </c>
+      <c r="U46">
+        <v>361.55200000000002</v>
+      </c>
+      <c r="V46">
+        <v>278.84199999999998</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-112.32599999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>122.988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>147.49199999999999</v>
+      </c>
+      <c r="D47">
+        <v>1529.3920000000001</v>
+      </c>
+      <c r="E47">
+        <v>144.822</v>
+      </c>
+      <c r="F47">
+        <v>761.68</v>
+      </c>
+      <c r="G47">
+        <v>2830.3820000000001</v>
+      </c>
+      <c r="H47">
+        <v>5754.125</v>
+      </c>
+      <c r="I47">
+        <v>1469.31</v>
+      </c>
+      <c r="J47">
+        <v>796.86300000000006</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.185</v>
+      </c>
+      <c r="N47">
+        <v>1801.6559999999999</v>
+      </c>
+      <c r="O47">
+        <v>2882.2779999999998</v>
+      </c>
+      <c r="P47">
+        <v>797.48800000000006</v>
+      </c>
+      <c r="Q47">
+        <v>213.64400000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2871.8470000000002</v>
+      </c>
+      <c r="U47">
+        <v>575.19600000000003</v>
+      </c>
+      <c r="V47">
+        <v>414.52800000000002</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-126.985</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>147.49199999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>146.12</v>
+      </c>
+      <c r="D48">
+        <v>1562.8489999999999</v>
+      </c>
+      <c r="E48">
+        <v>151.93600000000001</v>
+      </c>
+      <c r="F48">
+        <v>779.86099999999999</v>
+      </c>
+      <c r="G48">
+        <v>2763.9920000000002</v>
+      </c>
+      <c r="H48">
+        <v>5710.0919999999996</v>
+      </c>
+      <c r="I48">
+        <v>1699.817</v>
+      </c>
+      <c r="J48">
+        <v>796.88400000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2012.8979999999999</v>
+      </c>
+      <c r="O48">
+        <v>3097.44</v>
+      </c>
+      <c r="P48">
+        <v>797.40599999999995</v>
+      </c>
+      <c r="Q48">
+        <v>-207.47900000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2612.652</v>
+      </c>
+      <c r="U48">
+        <v>367.71699999999998</v>
+      </c>
+      <c r="V48">
+        <v>276.93</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-411.15199999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>146.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>159.33199999999999</v>
+      </c>
+      <c r="D49">
+        <v>1601.558</v>
+      </c>
+      <c r="E49">
+        <v>152.53200000000001</v>
+      </c>
+      <c r="F49">
+        <v>805.49300000000005</v>
+      </c>
+      <c r="G49">
+        <v>2882.85</v>
+      </c>
+      <c r="H49">
+        <v>5849.3559999999998</v>
+      </c>
+      <c r="I49">
+        <v>1863.3530000000001</v>
+      </c>
+      <c r="J49">
+        <v>1095.672</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2195.4090000000001</v>
+      </c>
+      <c r="O49">
+        <v>3590.8330000000001</v>
+      </c>
+      <c r="P49">
+        <v>1096.0250000000001</v>
+      </c>
+      <c r="Q49">
+        <v>54.988</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2258.5230000000001</v>
+      </c>
+      <c r="U49">
+        <v>422.70499999999998</v>
+      </c>
+      <c r="V49">
+        <v>341.66800000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-222.21</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>159.33199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>132.80199999999999</v>
+      </c>
+      <c r="D50">
+        <v>1488.385</v>
+      </c>
+      <c r="E50">
+        <v>122.989</v>
+      </c>
+      <c r="F50">
+        <v>750.38400000000001</v>
+      </c>
+      <c r="G50">
+        <v>2732.9479999999999</v>
+      </c>
+      <c r="H50">
+        <v>5749.1869999999999</v>
+      </c>
+      <c r="I50">
+        <v>1929.1120000000001</v>
+      </c>
+      <c r="J50">
+        <v>1095.7339999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2272.8649999999998</v>
+      </c>
+      <c r="O50">
+        <v>3640.88</v>
+      </c>
+      <c r="P50">
+        <v>1095.9559999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-174.577</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>53063</v>
+      </c>
+      <c r="T50">
+        <v>2108.3069999999998</v>
+      </c>
+      <c r="U50">
+        <v>248.12799999999999</v>
+      </c>
+      <c r="V50">
+        <v>218.429</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-287.22500000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>132.80199999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>154.32900000000001</v>
+      </c>
+      <c r="D51">
+        <v>1585.009</v>
+      </c>
+      <c r="E51">
+        <v>153.18899999999999</v>
+      </c>
+      <c r="F51">
+        <v>798.66300000000001</v>
+      </c>
+      <c r="G51">
+        <v>2741.1880000000001</v>
+      </c>
+      <c r="H51">
+        <v>5789.5410000000002</v>
+      </c>
+      <c r="I51">
+        <v>1967</v>
+      </c>
+      <c r="J51">
+        <v>1095.8520000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="N51">
+        <v>2349.0219999999999</v>
+      </c>
+      <c r="O51">
+        <v>3717.0160000000001</v>
+      </c>
+      <c r="P51">
+        <v>1095.9349999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-42.718000000000004</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2072.5250000000001</v>
+      </c>
+      <c r="U51">
+        <v>205.41</v>
+      </c>
+      <c r="V51">
+        <v>226.34399999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-196.96199999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>154.32900000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>177.12700000000001</v>
+      </c>
+      <c r="D52">
+        <v>1714.9690000000001</v>
+      </c>
+      <c r="E52">
+        <v>175.87700000000001</v>
+      </c>
+      <c r="F52">
+        <v>871.875</v>
+      </c>
+      <c r="G52">
+        <v>3005.1570000000002</v>
+      </c>
+      <c r="H52">
+        <v>6123.6459999999997</v>
+      </c>
+      <c r="I52">
+        <v>2058.8589999999999</v>
+      </c>
+      <c r="J52">
+        <v>1395.922</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2430.2979999999998</v>
+      </c>
+      <c r="O52">
+        <v>4117.5029999999997</v>
+      </c>
+      <c r="P52">
+        <v>1395.991</v>
+      </c>
+      <c r="Q52">
+        <v>160.52000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2006.143</v>
+      </c>
+      <c r="U52">
+        <v>365.93</v>
+      </c>
+      <c r="V52">
+        <v>213.06800000000001</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>49.085000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>177.12700000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>186.489</v>
+      </c>
+      <c r="D53">
+        <v>1728.0250000000001</v>
+      </c>
+      <c r="E53">
+        <v>141.928</v>
+      </c>
+      <c r="F53">
+        <v>879.16300000000001</v>
+      </c>
+      <c r="G53">
+        <v>2975.7730000000001</v>
+      </c>
+      <c r="H53">
+        <v>6167.1760000000004</v>
+      </c>
+      <c r="I53">
+        <v>2075.5250000000001</v>
+      </c>
+      <c r="J53">
+        <v>1396.0309999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2439.056</v>
+      </c>
+      <c r="O53">
+        <v>4131.2889999999998</v>
+      </c>
+      <c r="P53">
+        <v>1396.0989999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-2.9220000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2035.8869999999999</v>
+      </c>
+      <c r="U53">
+        <v>363.00799999999998</v>
+      </c>
+      <c r="V53">
+        <v>280.43599999999998</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-162.58600000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>186.489</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>152.34700000000001</v>
+      </c>
+      <c r="D54">
+        <v>1621.2339999999999</v>
+      </c>
+      <c r="E54">
+        <v>131.50399999999999</v>
+      </c>
+      <c r="F54">
+        <v>819.3</v>
+      </c>
+      <c r="G54">
+        <v>2835.201</v>
+      </c>
+      <c r="H54">
+        <v>6067.2079999999996</v>
+      </c>
+      <c r="I54">
+        <v>2056.5210000000002</v>
+      </c>
+      <c r="J54">
+        <v>1396.1410000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2423.0100000000002</v>
+      </c>
+      <c r="O54">
+        <v>4100.8869999999997</v>
+      </c>
+      <c r="P54">
+        <v>1396.2080000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-131.69</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>61909</v>
+      </c>
+      <c r="T54">
+        <v>1966.3209999999999</v>
+      </c>
+      <c r="U54">
+        <v>231.31800000000001</v>
+      </c>
+      <c r="V54">
+        <v>188.178</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-225.619</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>152.34700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>173.86</v>
+      </c>
+      <c r="D55">
+        <v>1727.943</v>
+      </c>
+      <c r="E55">
+        <v>142.703</v>
+      </c>
+      <c r="F55">
+        <v>877.71600000000001</v>
+      </c>
+      <c r="G55">
+        <v>3161.2730000000001</v>
+      </c>
+      <c r="H55">
+        <v>6429.7730000000001</v>
+      </c>
+      <c r="I55">
+        <v>2160.8969999999999</v>
+      </c>
+      <c r="J55">
+        <v>1396.242</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="N55">
+        <v>2597.85</v>
+      </c>
+      <c r="O55">
+        <v>4266.549</v>
+      </c>
+      <c r="P55">
+        <v>1396.316</v>
+      </c>
+      <c r="Q55">
+        <v>280.51299999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2163.2240000000002</v>
+      </c>
+      <c r="U55">
+        <v>511.83100000000002</v>
+      </c>
+      <c r="V55">
+        <v>345.54899999999998</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>16.861999999999998</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>173.86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>205.64699999999999</v>
+      </c>
+      <c r="D56">
+        <v>1847.088</v>
+      </c>
+      <c r="E56">
+        <v>156.60499999999999</v>
+      </c>
+      <c r="F56">
+        <v>950.87699999999995</v>
+      </c>
+      <c r="G56">
+        <v>3171.9670000000001</v>
+      </c>
+      <c r="H56">
+        <v>6507.8760000000002</v>
+      </c>
+      <c r="I56">
+        <v>2302.2820000000002</v>
+      </c>
+      <c r="J56">
+        <v>1396.3620000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2727.1170000000002</v>
+      </c>
+      <c r="O56">
+        <v>4390.2950000000001</v>
+      </c>
+      <c r="P56">
+        <v>1396.424</v>
+      </c>
+      <c r="Q56">
+        <v>-58.4</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2117.5810000000001</v>
+      </c>
+      <c r="U56">
+        <v>453.43099999999998</v>
+      </c>
+      <c r="V56">
+        <v>309.976</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-257.96899999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>205.64699999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>216.99700000000001</v>
+      </c>
+      <c r="D57">
+        <v>1876.8720000000001</v>
+      </c>
+      <c r="E57">
+        <v>152.779</v>
+      </c>
+      <c r="F57">
+        <v>968.20100000000002</v>
+      </c>
+      <c r="G57">
+        <v>3070.7510000000002</v>
+      </c>
+      <c r="H57">
+        <v>6475.1760000000004</v>
+      </c>
+      <c r="I57">
+        <v>2409.0540000000001</v>
+      </c>
+      <c r="J57">
+        <v>1396.4880000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2845.942</v>
+      </c>
+      <c r="O57">
+        <v>4498.7700000000004</v>
+      </c>
+      <c r="P57">
+        <v>1396.5319999999999</v>
+      </c>
+      <c r="Q57">
+        <v>-155.148</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1976.4059999999999</v>
+      </c>
+      <c r="U57">
+        <v>298.28300000000002</v>
+      </c>
+      <c r="V57">
+        <v>327.42899999999997</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-362.79899999999998</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>216.99700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>181.678</v>
+      </c>
+      <c r="D58">
+        <v>1764.1780000000001</v>
+      </c>
+      <c r="E58">
+        <v>143.9</v>
+      </c>
+      <c r="F58">
+        <v>912.10699999999997</v>
+      </c>
+      <c r="G58">
+        <v>3065.38</v>
+      </c>
+      <c r="H58">
+        <v>6532.0829999999996</v>
+      </c>
+      <c r="I58">
+        <v>2417.1669999999999</v>
+      </c>
+      <c r="J58">
+        <v>1388.3969999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2813.2979999999998</v>
+      </c>
+      <c r="O58">
+        <v>4513.665</v>
+      </c>
+      <c r="P58">
+        <v>1388.422</v>
+      </c>
+      <c r="Q58">
+        <v>-47.722999999999999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>67569</v>
+      </c>
+      <c r="T58">
+        <v>2018.4179999999999</v>
+      </c>
+      <c r="U58">
+        <v>250.56</v>
+      </c>
+      <c r="V58">
+        <v>207.476</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-143.88</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>181.678</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>212.864</v>
+      </c>
+      <c r="D59">
+        <v>1901.903</v>
+      </c>
+      <c r="E59">
+        <v>162.02000000000001</v>
+      </c>
+      <c r="F59">
+        <v>986.95899999999995</v>
+      </c>
+      <c r="G59">
+        <v>3274.1210000000001</v>
+      </c>
+      <c r="H59">
+        <v>6785.71</v>
+      </c>
+      <c r="I59">
+        <v>2470.7489999999998</v>
+      </c>
+      <c r="J59">
+        <v>1396.741</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="N59">
+        <v>2952.3809999999999</v>
+      </c>
+      <c r="O59">
+        <v>4642.21</v>
+      </c>
+      <c r="P59">
+        <v>1396.7470000000001</v>
+      </c>
+      <c r="Q59">
+        <v>223.08600000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2143.5</v>
+      </c>
+      <c r="U59">
+        <v>473.64600000000002</v>
+      </c>
+      <c r="V59">
+        <v>406.02499999999998</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-93.391999999999996</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>212.864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>233.50800000000001</v>
+      </c>
+      <c r="D60">
+        <v>2035.518</v>
+      </c>
+      <c r="E60">
+        <v>175.28899999999999</v>
+      </c>
+      <c r="F60">
+        <v>1058.7909999999999</v>
+      </c>
+      <c r="G60">
+        <v>3109.0329999999999</v>
+      </c>
+      <c r="H60">
+        <v>6668.1469999999999</v>
+      </c>
+      <c r="I60">
+        <v>2535.971</v>
+      </c>
+      <c r="J60">
+        <v>1396.8679999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3006.8690000000001</v>
+      </c>
+      <c r="O60">
+        <v>4698.1620000000003</v>
+      </c>
+      <c r="P60">
+        <v>1396.8679999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-213.60400000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>1969.9849999999999</v>
+      </c>
+      <c r="U60">
+        <v>260.04199999999997</v>
+      </c>
+      <c r="V60">
+        <v>292.428</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-412.637</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>233.50800000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>266.26799999999997</v>
+      </c>
+      <c r="D61">
+        <v>2080.201</v>
+      </c>
+      <c r="E61">
+        <v>163.88900000000001</v>
+      </c>
+      <c r="F61">
+        <v>1089.2539999999999</v>
+      </c>
+      <c r="G61">
+        <v>3157.5639999999999</v>
+      </c>
+      <c r="H61">
+        <v>6775.2659999999996</v>
+      </c>
+      <c r="I61">
+        <v>2626.1260000000002</v>
+      </c>
+      <c r="J61">
+        <v>1396.9949999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3103.9119999999998</v>
+      </c>
+      <c r="O61">
+        <v>4773.18</v>
+      </c>
+      <c r="P61">
+        <v>1396.9949999999999</v>
+      </c>
+      <c r="Q61">
+        <v>16.873999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2002.086</v>
+      </c>
+      <c r="U61">
+        <v>276.916</v>
+      </c>
+      <c r="V61">
+        <v>364.26900000000001</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-239.08799999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>266.26799999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>218.57599999999999</v>
+      </c>
+      <c r="D62">
+        <v>1949.0519999999999</v>
+      </c>
+      <c r="E62">
+        <v>161.078</v>
+      </c>
+      <c r="F62">
+        <v>1027.6389999999999</v>
+      </c>
+      <c r="G62">
+        <v>3010.0259999999998</v>
+      </c>
+      <c r="H62">
+        <v>6676.6840000000002</v>
+      </c>
+      <c r="I62">
+        <v>2608.2310000000002</v>
+      </c>
+      <c r="J62">
+        <v>1390.018</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3046.3980000000001</v>
+      </c>
+      <c r="O62">
+        <v>4715.37</v>
+      </c>
+      <c r="P62">
+        <v>1390.018</v>
+      </c>
+      <c r="Q62">
+        <v>-160.61500000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>71621</v>
+      </c>
+      <c r="T62">
+        <v>1961.3140000000001</v>
+      </c>
+      <c r="U62">
+        <v>116.301</v>
+      </c>
+      <c r="V62">
+        <v>218.75399999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-263.43</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>218.57599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>255.374</v>
+      </c>
+      <c r="D63">
+        <v>2096.15</v>
+      </c>
+      <c r="E63">
+        <v>178.28200000000001</v>
+      </c>
+      <c r="F63">
+        <v>1097.579</v>
+      </c>
+      <c r="G63">
+        <v>3701.4630000000002</v>
+      </c>
+      <c r="H63">
+        <v>7419.7730000000001</v>
+      </c>
+      <c r="I63">
+        <v>2782.6089999999999</v>
+      </c>
+      <c r="J63">
+        <v>1885.877</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3315.6770000000001</v>
+      </c>
+      <c r="O63">
+        <v>5479.9319999999998</v>
+      </c>
+      <c r="P63">
+        <v>1885.877</v>
+      </c>
+      <c r="Q63">
+        <v>599.70699999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1939.8409999999999</v>
+      </c>
+      <c r="U63">
+        <v>716.00800000000004</v>
+      </c>
+      <c r="V63">
+        <v>503.12099999999998</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>198.649</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>255.374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>257.79399999999998</v>
+      </c>
+      <c r="D64">
+        <v>2176.6889999999999</v>
+      </c>
+      <c r="E64">
+        <v>186.19200000000001</v>
+      </c>
+      <c r="F64">
+        <v>1127.1790000000001</v>
+      </c>
+      <c r="G64">
+        <v>3438.1329999999998</v>
+      </c>
+      <c r="H64">
+        <v>7210.64</v>
+      </c>
+      <c r="I64">
+        <v>2914.6410000000001</v>
+      </c>
+      <c r="J64">
+        <v>1886.3240000000001</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3366.6750000000002</v>
+      </c>
+      <c r="O64">
+        <v>5520.63</v>
+      </c>
+      <c r="P64">
+        <v>1886.3240000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-317.74900000000002</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1690.01</v>
+      </c>
+      <c r="U64">
+        <v>398.25900000000001</v>
+      </c>
+      <c r="V64">
+        <v>325.613</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-528.02700000000004</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>257.79399999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>278.49299999999999</v>
+      </c>
+      <c r="D65">
+        <v>2220.9549999999999</v>
+      </c>
+      <c r="E65">
+        <v>190.90799999999999</v>
+      </c>
+      <c r="F65">
+        <v>1170.0260000000001</v>
+      </c>
+      <c r="G65">
+        <v>3669.7640000000001</v>
+      </c>
+      <c r="H65">
+        <v>7522.34</v>
+      </c>
+      <c r="I65">
+        <v>2999.08</v>
+      </c>
+      <c r="J65">
+        <v>1886.501</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3465.4279999999999</v>
+      </c>
+      <c r="O65">
+        <v>5621.5770000000002</v>
+      </c>
+      <c r="P65">
+        <v>1886.501</v>
+      </c>
+      <c r="Q65">
+        <v>162.06100000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1900.7629999999999</v>
+      </c>
+      <c r="U65">
+        <v>560.32000000000005</v>
+      </c>
+      <c r="V65">
+        <v>385.52499999999998</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-88.164000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>278.49299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>246.03</v>
+      </c>
+      <c r="D66">
+        <v>2099.3020000000001</v>
+      </c>
+      <c r="E66">
+        <v>197.274</v>
+      </c>
+      <c r="F66">
+        <v>1114.2270000000001</v>
+      </c>
+      <c r="G66">
+        <v>3257.9749999999999</v>
+      </c>
+      <c r="H66">
+        <v>7204.1890000000003</v>
+      </c>
+      <c r="I66">
+        <v>2936.6559999999999</v>
+      </c>
+      <c r="J66">
+        <v>1887.019</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3400.6489999999999</v>
+      </c>
+      <c r="O66">
+        <v>5577.0529999999999</v>
+      </c>
+      <c r="P66">
+        <v>1887.019</v>
+      </c>
+      <c r="Q66">
+        <v>-413.72199999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>74580</v>
+      </c>
+      <c r="T66">
+        <v>1627.136</v>
+      </c>
+      <c r="U66">
+        <v>146.59800000000001</v>
+      </c>
+      <c r="V66">
+        <v>296.45400000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-533.77800000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>246.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>264.93400000000003</v>
+      </c>
+      <c r="D67">
+        <v>2156.259</v>
+      </c>
+      <c r="E67">
+        <v>195.65100000000001</v>
+      </c>
+      <c r="F67">
+        <v>1131.1469999999999</v>
+      </c>
+      <c r="G67">
+        <v>3205.5329999999999</v>
+      </c>
+      <c r="H67">
+        <v>7203.7240000000002</v>
+      </c>
+      <c r="I67">
+        <v>2987.9960000000001</v>
+      </c>
+      <c r="J67">
+        <v>1977.539</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-392</v>
+      </c>
+      <c r="N67">
+        <v>3505.7629999999999</v>
+      </c>
+      <c r="O67">
+        <v>5781.1279999999997</v>
+      </c>
+      <c r="P67">
+        <v>1977.539</v>
+      </c>
+      <c r="Q67">
+        <v>-119.059</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1422.596</v>
+      </c>
+      <c r="U67">
+        <v>27.539000000000001</v>
+      </c>
+      <c r="V67">
+        <v>376.7</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-384.73599999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>264.93400000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>282.82100000000003</v>
+      </c>
+      <c r="D68">
+        <v>2290.8290000000002</v>
+      </c>
+      <c r="E68">
+        <v>203.673</v>
+      </c>
+      <c r="F68">
+        <v>1200.0619999999999</v>
+      </c>
+      <c r="G68">
+        <v>3289.5889999999999</v>
+      </c>
+      <c r="H68">
+        <v>7345.6980000000003</v>
+      </c>
+      <c r="I68">
+        <v>3091.8879999999999</v>
+      </c>
+      <c r="J68">
+        <v>2604.0619999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3566.1329999999998</v>
+      </c>
+      <c r="O68">
+        <v>6476.3860000000004</v>
+      </c>
+      <c r="P68">
+        <v>2604.0619999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-1.0109999999999999</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>869.31200000000001</v>
+      </c>
+      <c r="U68">
+        <v>26.527999999999999</v>
+      </c>
+      <c r="V68">
+        <v>333.80700000000002</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-217.12</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>282.82100000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>283.73399999999998</v>
+      </c>
+      <c r="D69">
+        <v>2339.83</v>
+      </c>
+      <c r="E69">
+        <v>219.631</v>
+      </c>
+      <c r="F69">
+        <v>1230.2940000000001</v>
+      </c>
+      <c r="G69">
+        <v>3358.4810000000002</v>
+      </c>
+      <c r="H69">
+        <v>7479.3280000000004</v>
+      </c>
+      <c r="I69">
+        <v>3154.25</v>
+      </c>
+      <c r="J69">
+        <v>2900.8159999999998</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3628.5</v>
+      </c>
+      <c r="O69">
+        <v>6865.1490000000003</v>
+      </c>
+      <c r="P69">
+        <v>2900.8159999999998</v>
+      </c>
+      <c r="Q69">
+        <v>10.759</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>614.17899999999997</v>
+      </c>
+      <c r="U69">
+        <v>37.286999999999999</v>
+      </c>
+      <c r="V69">
+        <v>376.91199999999998</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-246.952</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>283.73399999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>302.315</v>
+      </c>
+      <c r="D70">
+        <v>2190.808</v>
+      </c>
+      <c r="E70">
+        <v>216.251</v>
+      </c>
+      <c r="F70">
+        <v>1159.18</v>
+      </c>
+      <c r="G70">
+        <v>3397.672</v>
+      </c>
+      <c r="H70">
+        <v>7571.8850000000002</v>
+      </c>
+      <c r="I70">
+        <v>3190.029</v>
+      </c>
+      <c r="J70">
+        <v>2978.39</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3647.366</v>
+      </c>
+      <c r="O70">
+        <v>6918.8389999999999</v>
+      </c>
+      <c r="P70">
+        <v>2978.39</v>
+      </c>
+      <c r="Q70">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>75552</v>
+      </c>
+      <c r="T70">
+        <v>653.04600000000005</v>
+      </c>
+      <c r="U70">
+        <v>46.347999999999999</v>
+      </c>
+      <c r="V70">
+        <v>316.26799999999997</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-190.90600000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>302.315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>304.90600000000001</v>
+      </c>
+      <c r="D71">
+        <v>2282.681</v>
+      </c>
+      <c r="E71">
+        <v>224.386</v>
+      </c>
+      <c r="F71">
+        <v>1201.258</v>
+      </c>
+      <c r="G71">
+        <v>3446.4110000000001</v>
+      </c>
+      <c r="H71">
+        <v>7666.6570000000002</v>
+      </c>
+      <c r="I71">
+        <v>3222.7849999999999</v>
+      </c>
+      <c r="J71">
+        <v>3193.0659999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-541</v>
+      </c>
+      <c r="N71">
+        <v>3748.181</v>
+      </c>
+      <c r="O71">
+        <v>7242.8289999999997</v>
+      </c>
+      <c r="P71">
+        <v>3193.0659999999998</v>
+      </c>
+      <c r="Q71">
+        <v>-7.8230000000000004</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>423.82799999999997</v>
+      </c>
+      <c r="U71">
+        <v>38.524999999999999</v>
+      </c>
+      <c r="V71">
+        <v>432.27699999999999</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-325.63400000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>304.90600000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>353.07299999999998</v>
+      </c>
+      <c r="D72">
+        <v>2456.0729999999999</v>
+      </c>
+      <c r="E72">
+        <v>241.142</v>
+      </c>
+      <c r="F72">
+        <v>1288.6379999999999</v>
+      </c>
+      <c r="G72">
+        <v>3500.7170000000001</v>
+      </c>
+      <c r="H72">
+        <v>7766.74</v>
+      </c>
+      <c r="I72">
+        <v>3314.6709999999998</v>
+      </c>
+      <c r="J72">
+        <v>3253.538</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3818.9180000000001</v>
+      </c>
+      <c r="O72">
+        <v>7381.75</v>
+      </c>
+      <c r="P72">
+        <v>3253.538</v>
+      </c>
+      <c r="Q72">
+        <v>-1.657</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>384.99</v>
+      </c>
+      <c r="U72">
+        <v>36.868000000000002</v>
+      </c>
+      <c r="V72">
+        <v>442.95600000000002</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-337.47399999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>353.07299999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>366.15100000000001</v>
+      </c>
+      <c r="D73">
+        <v>2482.7170000000001</v>
+      </c>
+      <c r="E73">
+        <v>242.69200000000001</v>
+      </c>
+      <c r="F73">
+        <v>1315.7550000000001</v>
+      </c>
+      <c r="G73">
+        <v>3560.0309999999999</v>
+      </c>
+      <c r="H73">
+        <v>7894.7139999999999</v>
+      </c>
+      <c r="I73">
+        <v>3384.098</v>
+      </c>
+      <c r="J73">
+        <v>3174.3270000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3905.0810000000001</v>
+      </c>
+      <c r="O73">
+        <v>7396.335</v>
+      </c>
+      <c r="P73">
+        <v>3174.3270000000002</v>
+      </c>
+      <c r="Q73">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>498.37900000000002</v>
+      </c>
+      <c r="U73">
+        <v>40.018999999999998</v>
+      </c>
+      <c r="V73">
+        <v>466.786</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-337.416</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>366.15100000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>300.35700000000003</v>
+      </c>
+      <c r="D74">
+        <v>2314.9569999999999</v>
+      </c>
+      <c r="E74">
+        <v>192.02600000000001</v>
+      </c>
+      <c r="F74">
+        <v>1234.3150000000001</v>
+      </c>
+      <c r="G74">
+        <v>3543.1019999999999</v>
+      </c>
+      <c r="H74">
+        <v>7980.7889999999998</v>
+      </c>
+      <c r="I74">
+        <v>3376.4029999999998</v>
+      </c>
+      <c r="J74">
+        <v>3417.1219999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3894.02</v>
+      </c>
+      <c r="O74">
+        <v>7627.1220000000003</v>
+      </c>
+      <c r="P74">
+        <v>3417.1219999999998</v>
+      </c>
+      <c r="Q74">
+        <v>-8.7040000000000006</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>78882</v>
+      </c>
+      <c r="T74">
+        <v>353.66699999999997</v>
+      </c>
+      <c r="U74">
+        <v>31.315000000000001</v>
+      </c>
+      <c r="V74">
+        <v>385.536</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-207.762</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>300.35700000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>321.15199999999999</v>
+      </c>
+      <c r="D75">
+        <v>2410.6080000000002</v>
+      </c>
+      <c r="E75">
+        <v>250.68</v>
+      </c>
+      <c r="F75">
+        <v>1279.29</v>
+      </c>
+      <c r="G75">
+        <v>3649.6460000000002</v>
+      </c>
+      <c r="H75">
+        <v>10061.562</v>
+      </c>
+      <c r="I75">
+        <v>3438.6790000000001</v>
+      </c>
+      <c r="J75">
+        <v>3460.9209999999998</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-831</v>
+      </c>
+      <c r="N75">
+        <v>4326.3320000000003</v>
+      </c>
+      <c r="O75">
+        <v>9689.1970000000001</v>
+      </c>
+      <c r="P75">
+        <v>5386.8370000000004</v>
+      </c>
+      <c r="Q75">
+        <v>25.402000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>372.36500000000001</v>
+      </c>
+      <c r="U75">
+        <v>56.716999999999999</v>
+      </c>
+      <c r="V75">
+        <v>440.62200000000001</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-263.822</v>
+      </c>
+      <c r="Y75">
+        <v>1629.3109999999999</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>321.15199999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>353.68099999999998</v>
+      </c>
+      <c r="D76">
+        <v>2589.8739999999998</v>
+      </c>
+      <c r="E76">
+        <v>262.22699999999998</v>
+      </c>
+      <c r="F76">
+        <v>1368.287</v>
+      </c>
+      <c r="G76">
+        <v>3700.5729999999999</v>
+      </c>
+      <c r="H76">
+        <v>10201.942999999999</v>
+      </c>
+      <c r="I76">
+        <v>3516.15</v>
+      </c>
+      <c r="J76">
+        <v>3783.7379999999998</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4360.3919999999998</v>
+      </c>
+      <c r="O76">
+        <v>10057.261</v>
+      </c>
+      <c r="P76">
+        <v>5719.491</v>
+      </c>
+      <c r="Q76">
+        <v>-0.90800000000000003</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>144.68199999999999</v>
+      </c>
+      <c r="U76">
+        <v>55.808999999999997</v>
+      </c>
+      <c r="V76">
+        <v>406.38200000000001</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-265.33999999999997</v>
+      </c>
+      <c r="Y76">
+        <v>1631.7190000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-1.7170000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>353.68099999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>391.29300000000001</v>
+      </c>
+      <c r="D77">
+        <v>2666.5279999999998</v>
+      </c>
+      <c r="E77">
+        <v>224.03299999999999</v>
+      </c>
+      <c r="F77">
+        <v>1422.53</v>
+      </c>
+      <c r="G77">
+        <v>3724.489</v>
+      </c>
+      <c r="H77">
+        <v>10372.724</v>
+      </c>
+      <c r="I77">
+        <v>3606.5709999999999</v>
+      </c>
+      <c r="J77">
+        <v>3703.6280000000002</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4580.8540000000003</v>
+      </c>
+      <c r="O77">
+        <v>10206.504999999999</v>
+      </c>
+      <c r="P77">
+        <v>5654.5320000000002</v>
+      </c>
+      <c r="Q77">
+        <v>-13.005000000000001</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>166.21899999999999</v>
+      </c>
+      <c r="U77">
+        <v>42.804000000000002</v>
+      </c>
+      <c r="V77">
+        <v>642.67200000000003</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-455.97</v>
+      </c>
+      <c r="Y77">
+        <v>1642.1780000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-16.271000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>391.29300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>324.916</v>
+      </c>
+      <c r="D78">
+        <v>2482.9749999999999</v>
+      </c>
+      <c r="E78">
+        <v>214.91499999999999</v>
+      </c>
+      <c r="F78">
+        <v>1324.5840000000001</v>
+      </c>
+      <c r="G78">
+        <v>3833.6619999999998</v>
+      </c>
+      <c r="H78">
+        <v>10717.16</v>
+      </c>
+      <c r="I78">
+        <v>3604.7220000000002</v>
+      </c>
+      <c r="J78">
+        <v>3890.527</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4469.4269999999997</v>
+      </c>
+      <c r="O78">
+        <v>10319.82</v>
+      </c>
+      <c r="P78">
+        <v>5861.8850000000002</v>
+      </c>
+      <c r="Q78">
+        <v>-2.3980000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>81223</v>
+      </c>
+      <c r="T78">
+        <v>397.34</v>
+      </c>
+      <c r="U78">
+        <v>40.405999999999999</v>
+      </c>
+      <c r="V78">
+        <v>218.803</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>82.320999999999998</v>
+      </c>
+      <c r="Y78">
+        <v>1655.297</v>
+      </c>
+      <c r="Z78">
+        <v>-15.792999999999999</v>
+      </c>
+      <c r="AA78">
+        <v>324.916</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>300.43799999999999</v>
+      </c>
+      <c r="D79">
+        <v>2476.4870000000001</v>
+      </c>
+      <c r="E79">
+        <v>221.167</v>
+      </c>
+      <c r="F79">
+        <v>1295.9059999999999</v>
+      </c>
+      <c r="G79">
+        <v>4201.8</v>
+      </c>
+      <c r="H79">
+        <v>11108.861999999999</v>
+      </c>
+      <c r="I79">
+        <v>3758.1990000000001</v>
+      </c>
+      <c r="J79">
+        <v>4471.2479999999996</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-969</v>
+      </c>
+      <c r="N79">
+        <v>4624.9319999999998</v>
+      </c>
+      <c r="O79">
+        <v>11000.018</v>
+      </c>
+      <c r="P79">
+        <v>6450.1710000000003</v>
+      </c>
+      <c r="Q79">
+        <v>246.661</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>108.84399999999999</v>
+      </c>
+      <c r="U79">
+        <v>287.06700000000001</v>
+      </c>
+      <c r="V79">
+        <v>459.09300000000002</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>15.3</v>
+      </c>
+      <c r="Y79">
+        <v>1661.991</v>
+      </c>
+      <c r="Z79">
+        <v>-95.259</v>
+      </c>
+      <c r="AA79">
+        <v>300.43799999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>531.66700000000003</v>
+      </c>
+      <c r="D80">
+        <v>3091.5949999999998</v>
+      </c>
+      <c r="E80">
+        <v>243.66</v>
+      </c>
+      <c r="F80">
+        <v>1637.18</v>
+      </c>
+      <c r="G80">
+        <v>4784.4849999999997</v>
+      </c>
+      <c r="H80">
+        <v>11728.535</v>
+      </c>
+      <c r="I80">
+        <v>3936.4</v>
+      </c>
+      <c r="J80">
+        <v>4127.3969999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5022.1360000000004</v>
+      </c>
+      <c r="O80">
+        <v>11139.434999999999</v>
+      </c>
+      <c r="P80">
+        <v>6098.2820000000002</v>
+      </c>
+      <c r="Q80">
+        <v>585.35599999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>589.1</v>
+      </c>
+      <c r="U80">
+        <v>872.423</v>
+      </c>
+      <c r="V80">
+        <v>1099.9849999999999</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-406.03199999999998</v>
+      </c>
+      <c r="Y80">
+        <v>1652.2840000000001</v>
+      </c>
+      <c r="Z80">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AA80">
+        <v>531.66700000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>527.25199999999995</v>
+      </c>
+      <c r="D81">
+        <v>3207.6379999999999</v>
+      </c>
+      <c r="E81">
+        <v>243.19200000000001</v>
+      </c>
+      <c r="F81">
+        <v>1680.4680000000001</v>
+      </c>
+      <c r="G81">
+        <v>5533.4409999999998</v>
+      </c>
+      <c r="H81">
+        <v>12503.950999999999</v>
+      </c>
+      <c r="I81">
+        <v>4083.8049999999998</v>
+      </c>
+      <c r="J81">
+        <v>4122.424</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5669.384</v>
+      </c>
+      <c r="O81">
+        <v>11794.726000000001</v>
+      </c>
+      <c r="P81">
+        <v>6581.3860000000004</v>
+      </c>
+      <c r="Q81">
+        <v>754.67499999999995</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>709.22500000000002</v>
+      </c>
+      <c r="U81">
+        <v>1627.098</v>
+      </c>
+      <c r="V81">
+        <v>790.05100000000004</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>76.388999999999996</v>
+      </c>
+      <c r="Y81">
+        <v>1640.646</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>527.25199999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>392.94499999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2828.7730000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>229.679</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1472.1379999999999</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4499.7870000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11596.642</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>4184.6620000000003</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>4123.2169999999996</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>5262.4170000000004</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11456.384</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>6164.6859999999997</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1161.4580000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>76257</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>140.25800000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>465.64</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>487.47399999999999</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-1482.2339999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1718.691</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-68.819000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>392.94499999999999</v>
       </c>
     </row>
